--- a/جرد المواد.xlsx
+++ b/جرد المواد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InventorySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0FB53-B05F-4596-891D-E708E9475A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507EB666-9865-47D9-BD5C-54B86F8EEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9897150A-1D18-4DC5-83DE-EA3717EE1A52}"/>
   </bookViews>

--- a/جرد المواد.xlsx
+++ b/جرد المواد.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InventorySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507EB666-9865-47D9-BD5C-54B86F8EEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898172F-B2AC-458E-B368-564E4D86F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9897150A-1D18-4DC5-83DE-EA3717EE1A52}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="618">
   <si>
     <t>3-ديوان</t>
   </si>
@@ -1883,6 +1883,36 @@
   </si>
   <si>
     <t>وصل مخالف بلاستيك 4*5</t>
+  </si>
+  <si>
+    <t>جرد المواد</t>
+  </si>
+  <si>
+    <t>رمز المجموعة</t>
+  </si>
+  <si>
+    <t>اسم المادة</t>
+  </si>
+  <si>
+    <t>الرصيد</t>
+  </si>
+  <si>
+    <t>الافرادي</t>
+  </si>
+  <si>
+    <t>ركور انتاية 40*1 1/4 زراعي</t>
+  </si>
+  <si>
+    <t>سدة بسن بلاستيك 2</t>
+  </si>
+  <si>
+    <t>قنينة ماء سخنة 100 لتر 3 ملم</t>
+  </si>
+  <si>
+    <t>كوع فاتح بلاستيك 4</t>
+  </si>
+  <si>
+    <t>كوع مدفع بلاستيك 4</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
@@ -2042,6 +2072,9 @@
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2422,10 +2455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E5C9A6-5EC3-4592-9122-0E1001CE6231}">
-  <dimension ref="A1:E676"/>
+  <dimension ref="A1:E682"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:E682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2439,11 +2472,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>608</v>
+      </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="12"/>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>612</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>7</v>
@@ -3401,13 +3453,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="15">
-        <v>-1</v>
+        <v>8000</v>
       </c>
       <c r="E60" s="16">
         <v>0</v>
@@ -3418,13 +3470,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="15">
-        <v>8000</v>
+        <v>-1</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3435,13 +3487,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>590</v>
       </c>
       <c r="D62" s="15">
-        <v>-41</v>
+        <v>-20</v>
       </c>
       <c r="E62" s="16">
         <v>0</v>
@@ -3452,13 +3504,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>590</v>
       </c>
       <c r="D63" s="14">
-        <v>-20</v>
+        <v>-41</v>
       </c>
       <c r="E63" s="16">
         <v>0</v>
@@ -3486,13 +3538,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>591</v>
       </c>
       <c r="D65" s="15">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="E65" s="16">
         <v>0</v>
@@ -3503,13 +3555,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>591</v>
       </c>
       <c r="D66" s="15">
-        <v>10000</v>
+        <v>-1</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3792,13 +3844,13 @@
         <v>20407</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D83" s="15">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="E83" s="16">
         <v>0</v>
@@ -3809,13 +3861,13 @@
         <v>20407</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D84" s="15">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16">
         <v>0</v>
@@ -3945,13 +3997,13 @@
         <v>10132</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D92" s="15">
-        <v>1650</v>
+        <v>750</v>
       </c>
       <c r="E92" s="16">
         <v>0</v>
@@ -3979,13 +4031,13 @@
         <v>10132</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D94" s="15">
-        <v>750</v>
+        <v>1650</v>
       </c>
       <c r="E94" s="16">
         <v>0</v>
@@ -3996,13 +4048,13 @@
         <v>10132</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D95" s="15">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="E95" s="16">
         <v>0</v>
@@ -4013,13 +4065,13 @@
         <v>10132</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D96" s="15">
-        <v>800</v>
+        <v>225</v>
       </c>
       <c r="E96" s="16">
         <v>0</v>
@@ -4030,13 +4082,13 @@
         <v>10132</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="15">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="E97" s="16">
         <v>0</v>
@@ -4206,7 +4258,7 @@
         <v>81</v>
       </c>
       <c r="D107" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" s="16">
         <v>0</v>
@@ -4387,13 +4439,13 @@
         <v>1104</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D118" s="15">
-        <v>-1</v>
+        <v>2500</v>
       </c>
       <c r="E118" s="16">
         <v>0</v>
@@ -4404,13 +4456,13 @@
         <v>1104</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D119" s="15">
-        <v>2500</v>
+        <v>-1</v>
       </c>
       <c r="E119" s="16">
         <v>0</v>
@@ -5067,13 +5119,13 @@
         <v>1104</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D158" s="15">
-        <v>-1</v>
+        <v>516</v>
       </c>
       <c r="E158" s="16">
         <v>0</v>
@@ -5084,13 +5136,13 @@
         <v>1104</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D159" s="15">
-        <v>516</v>
+        <v>-1</v>
       </c>
       <c r="E159" s="16">
         <v>0</v>
@@ -5152,13 +5204,13 @@
         <v>1104</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D163" s="15">
-        <v>516</v>
+        <v>-1</v>
       </c>
       <c r="E163" s="16">
         <v>0</v>
@@ -5169,13 +5221,13 @@
         <v>1104</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D164" s="14">
-        <v>-1</v>
+        <v>516</v>
       </c>
       <c r="E164" s="16">
         <v>0</v>
@@ -5489,16 +5541,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>554</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="D183" s="14">
-        <v>-90</v>
+        <v>-20</v>
       </c>
       <c r="E183" s="16">
         <v>0</v>
@@ -5506,16 +5558,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="11">
-        <v>20113</v>
+        <v>3502</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>554</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D184" s="15">
-        <v>-4</v>
+        <v>-190</v>
       </c>
       <c r="E184" s="16">
         <v>0</v>
@@ -5523,16 +5575,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
-        <v>20111</v>
+        <v>20113</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>147</v>
+        <v>594</v>
       </c>
       <c r="D185" s="15">
-        <v>130</v>
+        <v>-4</v>
       </c>
       <c r="E185" s="16">
         <v>0</v>
@@ -5546,10 +5598,10 @@
         <v>554</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="D186" s="15">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="E186" s="16">
         <v>0</v>
@@ -5560,13 +5612,13 @@
         <v>20111</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D187" s="15">
-        <v>15</v>
+        <v>-20</v>
       </c>
       <c r="E187" s="16">
         <v>0</v>
@@ -5574,16 +5626,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="11">
-        <v>20410</v>
+        <v>20111</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>596</v>
+        <v>147</v>
       </c>
       <c r="D188" s="15">
-        <v>-10</v>
+        <v>130</v>
       </c>
       <c r="E188" s="16">
         <v>0</v>
@@ -5591,16 +5643,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="11">
-        <v>10112</v>
+        <v>20111</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>149</v>
+        <v>595</v>
       </c>
       <c r="D189" s="15">
-        <v>1000</v>
+        <v>-10</v>
       </c>
       <c r="E189" s="16">
         <v>0</v>
@@ -5608,16 +5660,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="11">
-        <v>10112</v>
+        <v>20111</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D190" s="15">
-        <v>800</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16">
         <v>0</v>
@@ -5625,16 +5677,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="11">
-        <v>10112</v>
+        <v>20410</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>150</v>
+        <v>596</v>
       </c>
       <c r="D191" s="15">
-        <v>300</v>
+        <v>-10</v>
       </c>
       <c r="E191" s="16">
         <v>0</v>
@@ -5645,13 +5697,13 @@
         <v>10112</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D192" s="15">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="E192" s="16">
         <v>0</v>
@@ -5662,13 +5714,13 @@
         <v>10112</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D193" s="15">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E193" s="16">
         <v>0</v>
@@ -5682,10 +5734,10 @@
         <v>54</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D194" s="15">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="E194" s="16">
         <v>0</v>
@@ -5693,16 +5745,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
-        <v>10127</v>
+        <v>10112</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D195" s="14">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E195" s="16">
         <v>0</v>
@@ -5710,16 +5762,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="11">
-        <v>20113</v>
+        <v>10112</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>597</v>
+        <v>151</v>
       </c>
       <c r="D196" s="15">
-        <v>-10</v>
+        <v>200</v>
       </c>
       <c r="E196" s="16">
         <v>0</v>
@@ -5730,13 +5782,13 @@
         <v>10112</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D197" s="15">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E197" s="16">
         <v>0</v>
@@ -5744,16 +5796,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="11">
-        <v>10112</v>
+        <v>10127</v>
       </c>
       <c r="B198" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D198" s="15">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E198" s="16">
         <v>0</v>
@@ -5761,16 +5813,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="11">
-        <v>10113</v>
+        <v>20113</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>155</v>
+        <v>597</v>
       </c>
       <c r="D199" s="15">
-        <v>268</v>
+        <v>-10</v>
       </c>
       <c r="E199" s="16">
         <v>0</v>
@@ -5778,16 +5830,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="11">
-        <v>25</v>
+        <v>10112</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D200" s="15">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E200" s="16">
         <v>0</v>
@@ -5795,16 +5847,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="11">
-        <v>25</v>
+        <v>10112</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D201" s="15">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="E201" s="16">
         <v>0</v>
@@ -5812,16 +5864,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="11">
-        <v>25</v>
+        <v>10113</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D202" s="15">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E202" s="16">
         <v>0</v>
@@ -5832,13 +5884,13 @@
         <v>25</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D203" s="15">
-        <v>1120</v>
+        <v>-100</v>
       </c>
       <c r="E203" s="16">
         <v>0</v>
@@ -5852,10 +5904,10 @@
         <v>0</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D204" s="14">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="E204" s="16">
         <v>0</v>
@@ -5863,16 +5915,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="11">
-        <v>3509</v>
+        <v>25</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>598</v>
+        <v>157</v>
       </c>
       <c r="D205" s="15">
-        <v>-1</v>
+        <v>240</v>
       </c>
       <c r="E205" s="16">
         <v>0</v>
@@ -5886,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D206" s="15">
-        <v>336</v>
+        <v>1120</v>
       </c>
       <c r="E206" s="16">
         <v>0</v>
@@ -5897,16 +5949,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
-        <v>10114</v>
+        <v>25</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D207" s="15">
-        <v>880</v>
+        <v>480</v>
       </c>
       <c r="E207" s="16">
         <v>0</v>
@@ -5914,16 +5966,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="11">
-        <v>10135</v>
+        <v>3509</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>162</v>
+        <v>598</v>
       </c>
       <c r="D208" s="15">
-        <v>61</v>
+        <v>-1</v>
       </c>
       <c r="E208" s="16">
         <v>0</v>
@@ -5931,16 +5983,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
-        <v>10114</v>
+        <v>25</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>527</v>
+        <v>160</v>
       </c>
       <c r="D209" s="15">
-        <v>770</v>
+        <v>336</v>
       </c>
       <c r="E209" s="16">
         <v>0</v>
@@ -5954,10 +6006,10 @@
         <v>54</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>528</v>
+        <v>161</v>
       </c>
       <c r="D210" s="15">
-        <v>180</v>
+        <v>880</v>
       </c>
       <c r="E210" s="16">
         <v>0</v>
@@ -5965,16 +6017,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
-        <v>10114</v>
+        <v>10135</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>529</v>
+        <v>162</v>
       </c>
       <c r="D211" s="15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E211" s="16">
         <v>0</v>
@@ -5988,10 +6040,10 @@
         <v>54</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D212" s="15">
-        <v>30</v>
+        <v>770</v>
       </c>
       <c r="E212" s="16">
         <v>0</v>
@@ -5999,16 +6051,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
-        <v>25</v>
+        <v>10114</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>163</v>
+        <v>528</v>
       </c>
       <c r="D213" s="15">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="E213" s="16">
         <v>0</v>
@@ -6016,16 +6068,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
-        <v>25</v>
+        <v>10114</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>164</v>
+        <v>529</v>
       </c>
       <c r="D214" s="14">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E214" s="16">
         <v>0</v>
@@ -6033,16 +6085,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
-        <v>25</v>
+        <v>10114</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>165</v>
+        <v>530</v>
       </c>
       <c r="D215" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E215" s="16">
         <v>0</v>
@@ -6056,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D216" s="14">
         <v>28</v>
@@ -6073,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D217" s="15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E217" s="16">
         <v>0</v>
@@ -6090,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D218" s="15">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="E218" s="16">
         <v>0</v>
@@ -6101,16 +6153,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D219" s="14">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E219" s="16">
         <v>0</v>
@@ -6118,16 +6170,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
-        <v>20113</v>
+        <v>25</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>587</v>
+        <v>167</v>
       </c>
       <c r="D220" s="15">
-        <v>-34</v>
+        <v>29</v>
       </c>
       <c r="E220" s="16">
         <v>0</v>
@@ -6135,16 +6187,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
-        <v>30107</v>
+        <v>25</v>
       </c>
       <c r="B221" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D221" s="15">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E221" s="16">
         <v>0</v>
@@ -6152,16 +6204,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
-        <v>30109</v>
+        <v>27</v>
       </c>
       <c r="B222" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D222" s="15">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E222" s="16">
         <v>0</v>
@@ -6169,16 +6221,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
-        <v>30109</v>
+        <v>20113</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>172</v>
+        <v>587</v>
       </c>
       <c r="D223" s="15">
-        <v>215</v>
+        <v>-34</v>
       </c>
       <c r="E223" s="16">
         <v>0</v>
@@ -6186,16 +6238,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
-        <v>30109</v>
+        <v>30107</v>
       </c>
       <c r="B224" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D224" s="15">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E224" s="16">
         <v>0</v>
@@ -6209,10 +6261,10 @@
         <v>0</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D225" s="15">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="E225" s="16">
         <v>0</v>
@@ -6226,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D226" s="14">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="E226" s="16">
         <v>0</v>
@@ -6243,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D227" s="15">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E227" s="16">
         <v>0</v>
@@ -6254,16 +6306,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
-        <v>802</v>
+        <v>30109</v>
       </c>
       <c r="B228" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D228" s="15">
-        <v>12</v>
+        <v>342</v>
       </c>
       <c r="E228" s="16">
         <v>0</v>
@@ -6271,16 +6323,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
-        <v>802</v>
+        <v>30109</v>
       </c>
       <c r="B229" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D229" s="15">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="E229" s="16">
         <v>0</v>
@@ -6288,16 +6340,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
-        <v>802</v>
+        <v>30109</v>
       </c>
       <c r="B230" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D230" s="15">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="E230" s="16">
         <v>0</v>
@@ -6311,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D231" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E231" s="16">
         <v>0</v>
@@ -6328,10 +6380,10 @@
         <v>0</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D232" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232" s="16">
         <v>0</v>
@@ -6339,16 +6391,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>599</v>
+        <v>179</v>
       </c>
       <c r="D233" s="15">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E233" s="16">
         <v>0</v>
@@ -6356,16 +6408,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B234" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D234" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16">
         <v>0</v>
@@ -6373,16 +6425,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
-        <v>13</v>
+        <v>802</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>553</v>
+        <v>181</v>
       </c>
       <c r="D235" s="14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E235" s="16">
         <v>0</v>
@@ -6390,16 +6442,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>183</v>
+        <v>599</v>
       </c>
       <c r="D236" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E236" s="16">
         <v>0</v>
@@ -6413,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D237" s="15">
         <v>1</v>
@@ -6424,16 +6476,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="11">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>185</v>
+        <v>553</v>
       </c>
       <c r="D238" s="15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E238" s="16">
         <v>0</v>
@@ -6441,16 +6493,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
-        <v>1701</v>
+        <v>802</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D239" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E239" s="16">
         <v>0</v>
@@ -6458,16 +6510,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
-        <v>2002</v>
+        <v>801</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>567</v>
+        <v>184</v>
       </c>
       <c r="D240" s="15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E240" s="16">
         <v>0</v>
@@ -6475,16 +6527,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="11">
-        <v>2003</v>
+        <v>801</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D241" s="15">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E241" s="16">
         <v>0</v>
@@ -6492,16 +6544,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
-        <v>2001</v>
+        <v>1701</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D242" s="15">
-        <v>1650</v>
+        <v>3</v>
       </c>
       <c r="E242" s="16">
         <v>0</v>
@@ -6509,16 +6561,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>189</v>
+        <v>567</v>
       </c>
       <c r="D243" s="15">
-        <v>1550</v>
+        <v>50</v>
       </c>
       <c r="E243" s="16">
         <v>0</v>
@@ -6526,16 +6578,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B244" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>568</v>
+        <v>187</v>
       </c>
       <c r="D244" s="15">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E244" s="16">
         <v>0</v>
@@ -6543,16 +6595,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D245" s="15">
-        <v>410</v>
+        <v>1650</v>
       </c>
       <c r="E245" s="16">
         <v>0</v>
@@ -6560,16 +6612,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D246" s="14">
-        <v>69</v>
+        <v>1550</v>
       </c>
       <c r="E246" s="16">
         <v>0</v>
@@ -6577,16 +6629,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="11">
-        <v>1106</v>
+        <v>2002</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>192</v>
+        <v>568</v>
       </c>
       <c r="D247" s="15">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="E247" s="16">
         <v>0</v>
@@ -6594,16 +6646,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
-        <v>13</v>
+        <v>2004</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D248" s="15">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="E248" s="16">
         <v>0</v>
@@ -6611,16 +6663,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
-        <v>10129</v>
+        <v>2004</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D249" s="15">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E249" s="16">
         <v>0</v>
@@ -6628,16 +6680,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
-        <v>10105</v>
+        <v>1106</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D250" s="15">
-        <v>95</v>
+        <v>405</v>
       </c>
       <c r="E250" s="16">
         <v>0</v>
@@ -6645,16 +6697,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
-        <v>10105</v>
+        <v>13</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D251" s="15">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E251" s="16">
         <v>0</v>
@@ -6668,10 +6720,10 @@
         <v>54</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D252" s="15">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E252" s="16">
         <v>0</v>
@@ -6685,10 +6737,10 @@
         <v>54</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D253" s="14">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E253" s="16">
         <v>0</v>
@@ -6696,16 +6748,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
-        <v>10129</v>
+        <v>10105</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D254" s="15">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="E254" s="16">
         <v>0</v>
@@ -6713,16 +6765,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
-        <v>10105</v>
+        <v>10129</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D255" s="15">
-        <v>520</v>
+        <v>120</v>
       </c>
       <c r="E255" s="16">
         <v>0</v>
@@ -6736,10 +6788,10 @@
         <v>54</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D256" s="14">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -6750,13 +6802,13 @@
         <v>10129</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D257" s="15">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="E257" s="16">
         <v>0</v>
@@ -6767,13 +6819,13 @@
         <v>10105</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>517</v>
+        <v>199</v>
       </c>
       <c r="D258" s="15">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="E258" s="16">
         <v>0</v>
@@ -6781,16 +6833,16 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
-        <v>16</v>
+        <v>10105</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D259" s="15">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E259" s="16">
         <v>0</v>
@@ -6798,16 +6850,16 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="11">
-        <v>802</v>
+        <v>10129</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D260" s="15">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E260" s="16">
         <v>0</v>
@@ -6815,16 +6867,16 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="11">
-        <v>802</v>
+        <v>10105</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>203</v>
+        <v>517</v>
       </c>
       <c r="D261" s="15">
-        <v>18</v>
+        <v>720</v>
       </c>
       <c r="E261" s="16">
         <v>0</v>
@@ -6832,16 +6884,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="11">
-        <v>1106</v>
+        <v>16</v>
       </c>
       <c r="B262" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D262" s="15">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E262" s="16">
         <v>0</v>
@@ -6855,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D263" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E263" s="16">
         <v>0</v>
@@ -6872,10 +6924,10 @@
         <v>0</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D264" s="15">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E264" s="16">
         <v>0</v>
@@ -6883,16 +6935,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
-        <v>802</v>
+        <v>1106</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D265" s="14">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E265" s="16">
         <v>0</v>
@@ -6906,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D266" s="15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E266" s="16">
         <v>0</v>
@@ -6923,10 +6975,10 @@
         <v>0</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D267" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -6934,16 +6986,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B268" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D268" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E268" s="16">
         <v>0</v>
@@ -6951,16 +7003,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="11">
-        <v>23</v>
+        <v>802</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>574</v>
+        <v>208</v>
       </c>
       <c r="D269" s="15">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -6968,16 +7020,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
-        <v>23</v>
+        <v>802</v>
       </c>
       <c r="B270" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D270" s="14">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -6985,16 +7037,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="11">
-        <v>23</v>
+        <v>801</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D271" s="15">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="E271" s="16">
         <v>0</v>
@@ -7008,10 +7060,10 @@
         <v>552</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D272" s="15">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="E272" s="16">
         <v>0</v>
@@ -7019,16 +7071,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D273" s="15">
-        <v>1</v>
+        <v>349</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -7036,16 +7088,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="11">
-        <v>1106</v>
+        <v>23</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D274" s="15">
-        <v>377</v>
+        <v>177</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -7053,16 +7105,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="11">
-        <v>1106</v>
+        <v>23</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>215</v>
+        <v>575</v>
       </c>
       <c r="D275" s="15">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="E275" s="16">
         <v>0</v>
@@ -7070,16 +7122,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B276" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D276" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E276" s="16">
         <v>0</v>
@@ -7087,16 +7139,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="11">
-        <v>26</v>
+        <v>1106</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D277" s="15">
-        <v>2</v>
+        <v>377</v>
       </c>
       <c r="E277" s="16">
         <v>0</v>
@@ -7104,16 +7156,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
-        <v>26</v>
+        <v>1106</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D278" s="14">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="E278" s="16">
         <v>0</v>
@@ -7121,16 +7173,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="11">
-        <v>803</v>
+        <v>26</v>
       </c>
       <c r="B279" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D279" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E279" s="16">
         <v>0</v>
@@ -7138,16 +7190,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
-        <v>803</v>
+        <v>26</v>
       </c>
       <c r="B280" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D280" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E280" s="16">
         <v>0</v>
@@ -7155,16 +7207,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="11">
-        <v>803</v>
+        <v>26</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D281" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E281" s="16">
         <v>0</v>
@@ -7178,10 +7230,10 @@
         <v>11</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D282" s="15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E282" s="16">
         <v>0</v>
@@ -7195,10 +7247,10 @@
         <v>11</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D283" s="14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E283" s="16">
         <v>0</v>
@@ -7212,10 +7264,10 @@
         <v>11</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D284" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E284" s="16">
         <v>0</v>
@@ -7226,13 +7278,13 @@
         <v>803</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D285" s="15">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E285" s="16">
         <v>0</v>
@@ -7243,13 +7295,13 @@
         <v>803</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>580</v>
+        <v>223</v>
       </c>
       <c r="D286" s="15">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E286" s="16">
         <v>0</v>
@@ -7260,13 +7312,13 @@
         <v>803</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D287" s="15">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E287" s="16">
         <v>0</v>
@@ -7277,13 +7329,13 @@
         <v>803</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>581</v>
+        <v>224</v>
       </c>
       <c r="D288" s="15">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E288" s="16">
         <v>0</v>
@@ -7297,7 +7349,7 @@
         <v>554</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D289" s="15">
         <v>10</v>
@@ -7311,13 +7363,13 @@
         <v>803</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D290" s="14">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E290" s="16">
         <v>0</v>
@@ -7331,10 +7383,10 @@
         <v>554</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>226</v>
+        <v>581</v>
       </c>
       <c r="D291" s="15">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E291" s="16">
         <v>0</v>
@@ -7348,7 +7400,7 @@
         <v>554</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D292" s="15">
         <v>10</v>
@@ -7365,10 +7417,10 @@
         <v>554</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>584</v>
+        <v>226</v>
       </c>
       <c r="D293" s="14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E293" s="16">
         <v>0</v>
@@ -7382,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D294" s="15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E294" s="16">
         <v>0</v>
@@ -7396,13 +7448,13 @@
         <v>803</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>228</v>
+        <v>583</v>
       </c>
       <c r="D295" s="15">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16">
         <v>0</v>
@@ -7410,16 +7462,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
-        <v>26</v>
+        <v>803</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>229</v>
+        <v>584</v>
       </c>
       <c r="D296" s="15">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="E296" s="16">
         <v>0</v>
@@ -7427,16 +7479,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
-        <v>26</v>
+        <v>803</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D297" s="15">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E297" s="16">
         <v>0</v>
@@ -7444,16 +7496,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
-        <v>26</v>
+        <v>803</v>
       </c>
       <c r="B298" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D298" s="15">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="E298" s="16">
         <v>0</v>
@@ -7467,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D299" s="15">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="E299" s="16">
         <v>0</v>
@@ -7484,10 +7536,10 @@
         <v>0</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D300" s="15">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="E300" s="16">
         <v>0</v>
@@ -7501,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D301" s="15">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -7518,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D302" s="15">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="E302" s="16">
         <v>0</v>
@@ -7529,16 +7581,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D303" s="15">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="E303" s="16">
         <v>0</v>
@@ -7546,16 +7598,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D304" s="15">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="E304" s="16">
         <v>0</v>
@@ -7563,16 +7615,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="11">
-        <v>1602</v>
+        <v>26</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>586</v>
+        <v>235</v>
       </c>
       <c r="D305" s="15">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="E305" s="16">
         <v>0</v>
@@ -7580,16 +7632,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="11">
-        <v>1604</v>
+        <v>29</v>
       </c>
       <c r="B306" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D306" s="15">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E306" s="16">
         <v>0</v>
@@ -7597,13 +7649,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="11">
-        <v>1604</v>
+        <v>29</v>
       </c>
       <c r="B307" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D307" s="15">
         <v>2</v>
@@ -7620,7 +7672,7 @@
         <v>554</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D308" s="15">
         <v>-1</v>
@@ -7631,16 +7683,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="11">
-        <v>1003</v>
+        <v>1604</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D309" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E309" s="16">
         <v>0</v>
@@ -7648,16 +7700,16 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="11">
-        <v>1003</v>
+        <v>1604</v>
       </c>
       <c r="B310" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D310" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E310" s="16">
         <v>0</v>
@@ -7665,16 +7717,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
-        <v>1003</v>
+        <v>1602</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>242</v>
+        <v>600</v>
       </c>
       <c r="D311" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E311" s="16">
         <v>0</v>
@@ -7682,16 +7734,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="11">
-        <v>10115</v>
+        <v>1003</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D312" s="15">
-        <v>1075</v>
+        <v>1</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -7699,16 +7751,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="11">
-        <v>10115</v>
+        <v>1003</v>
       </c>
       <c r="B313" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D313" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -7716,16 +7768,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="11">
-        <v>10115</v>
+        <v>1003</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D314" s="15">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E314" s="16">
         <v>0</v>
@@ -7739,10 +7791,10 @@
         <v>54</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D315" s="15">
-        <v>310</v>
+        <v>1075</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -7753,13 +7805,13 @@
         <v>10115</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D316" s="15">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -7767,16 +7819,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="11">
-        <v>20401</v>
+        <v>10115</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D317" s="15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E317" s="16">
         <v>0</v>
@@ -7784,16 +7836,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="11">
-        <v>20401</v>
+        <v>10115</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D318" s="15">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="E318" s="16">
         <v>0</v>
@@ -7801,16 +7853,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="11">
-        <v>20401</v>
+        <v>10115</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D319" s="15">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="E319" s="16">
         <v>0</v>
@@ -7821,13 +7873,13 @@
         <v>20401</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D320" s="15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E320" s="16">
         <v>0</v>
@@ -7835,13 +7887,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="11">
-        <v>10117</v>
+        <v>20401</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>502</v>
+        <v>248</v>
       </c>
       <c r="D321" s="15">
         <v>15</v>
@@ -7852,16 +7904,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="11">
-        <v>10101</v>
+        <v>20401</v>
       </c>
       <c r="B322" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D322" s="15">
-        <v>700</v>
+        <v>19</v>
       </c>
       <c r="E322" s="16">
         <v>0</v>
@@ -7869,16 +7921,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="11">
-        <v>10101</v>
+        <v>20401</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D323" s="15">
-        <v>700</v>
+        <v>14</v>
       </c>
       <c r="E323" s="16">
         <v>0</v>
@@ -7892,10 +7944,10 @@
         <v>54</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D324" s="15">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="E324" s="16">
         <v>0</v>
@@ -7909,10 +7961,10 @@
         <v>54</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>508</v>
+        <v>251</v>
       </c>
       <c r="D325" s="15">
-        <v>3960</v>
+        <v>700</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -7920,16 +7972,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="11">
-        <v>10115</v>
+        <v>10101</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D326" s="15">
-        <v>125</v>
+        <v>700</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
@@ -7937,16 +7989,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="11">
-        <v>10115</v>
+        <v>10117</v>
       </c>
       <c r="B327" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>253</v>
+        <v>503</v>
       </c>
       <c r="D327" s="15">
-        <v>980</v>
+        <v>415</v>
       </c>
       <c r="E327" s="16">
         <v>0</v>
@@ -7954,16 +8006,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="11">
-        <v>10115</v>
+        <v>10101</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>253</v>
+        <v>508</v>
       </c>
       <c r="D328" s="15">
-        <v>175</v>
+        <v>3960</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
@@ -7971,16 +8023,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="11">
-        <v>10101</v>
+        <v>10115</v>
       </c>
       <c r="B329" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D329" s="15">
-        <v>1035</v>
+        <v>125</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -7994,10 +8046,10 @@
         <v>54</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>531</v>
+        <v>253</v>
       </c>
       <c r="D330" s="15">
-        <v>750</v>
+        <v>980</v>
       </c>
       <c r="E330" s="16">
         <v>0</v>
@@ -8005,16 +8057,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="11">
-        <v>10101</v>
+        <v>10115</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D331" s="15">
-        <v>-4</v>
+        <v>175</v>
       </c>
       <c r="E331" s="16">
         <v>0</v>
@@ -8025,13 +8077,13 @@
         <v>10101</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D332" s="15">
-        <v>43</v>
+        <v>1035</v>
       </c>
       <c r="E332" s="16">
         <v>0</v>
@@ -8039,16 +8091,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="11">
-        <v>10101</v>
+        <v>10115</v>
       </c>
       <c r="B333" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>255</v>
+        <v>531</v>
       </c>
       <c r="D333" s="15">
-        <v>60</v>
+        <v>750</v>
       </c>
       <c r="E333" s="16">
         <v>0</v>
@@ -8059,13 +8111,13 @@
         <v>10101</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D334" s="15">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -8073,16 +8125,16 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="11">
-        <v>10115</v>
+        <v>10101</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>532</v>
+        <v>255</v>
       </c>
       <c r="D335" s="15">
-        <v>500</v>
+        <v>43</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -8093,13 +8145,13 @@
         <v>10101</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D336" s="14">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -8110,13 +8162,13 @@
         <v>10101</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D337" s="15">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="E337" s="16">
         <v>0</v>
@@ -8124,16 +8176,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="11">
-        <v>10101</v>
+        <v>10115</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>258</v>
+        <v>532</v>
       </c>
       <c r="D338" s="15">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="E338" s="16">
         <v>0</v>
@@ -8147,10 +8199,10 @@
         <v>54</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D339" s="15">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E339" s="16">
         <v>0</v>
@@ -8158,16 +8210,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="11">
-        <v>10116</v>
+        <v>10101</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D340" s="15">
-        <v>1150</v>
+        <v>4</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -8175,16 +8227,16 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="11">
-        <v>10116</v>
+        <v>10101</v>
       </c>
       <c r="B341" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D341" s="15">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E341" s="16">
         <v>0</v>
@@ -8192,16 +8244,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="11">
-        <v>10116</v>
+        <v>10101</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D342" s="15">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="E342" s="16">
         <v>0</v>
@@ -8209,16 +8261,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="11">
-        <v>36</v>
+        <v>10116</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D343" s="15">
-        <v>2</v>
+        <v>1150</v>
       </c>
       <c r="E343" s="16">
         <v>0</v>
@@ -8226,16 +8278,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
-        <v>10111</v>
+        <v>10116</v>
       </c>
       <c r="B344" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D344" s="14">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E344" s="16">
         <v>0</v>
@@ -8243,16 +8295,16 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="11">
-        <v>10111</v>
+        <v>10116</v>
       </c>
       <c r="B345" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D345" s="15">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E345" s="16">
         <v>0</v>
@@ -8260,16 +8312,16 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="11">
-        <v>10111</v>
+        <v>36</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>524</v>
+        <v>262</v>
       </c>
       <c r="D346" s="15">
-        <v>450</v>
+        <v>2</v>
       </c>
       <c r="E346" s="16">
         <v>0</v>
@@ -8280,13 +8332,13 @@
         <v>10111</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D347" s="15">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="E347" s="16">
         <v>0</v>
@@ -8300,10 +8352,10 @@
         <v>54</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D348" s="15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E348" s="16">
         <v>0</v>
@@ -8317,10 +8369,10 @@
         <v>54</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D349" s="15">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="E349" s="16">
         <v>0</v>
@@ -8334,10 +8386,10 @@
         <v>54</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>526</v>
+        <v>265</v>
       </c>
       <c r="D350" s="15">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="E350" s="16">
         <v>0</v>
@@ -8348,13 +8400,13 @@
         <v>10111</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D351" s="15">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="E351" s="16">
         <v>0</v>
@@ -8362,16 +8414,16 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="10">
-        <v>10109</v>
+        <v>10111</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>267</v>
+        <v>525</v>
       </c>
       <c r="D352" s="14">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E352" s="16">
         <v>0</v>
@@ -8379,16 +8431,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="11">
-        <v>10109</v>
+        <v>10111</v>
       </c>
       <c r="B353" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>267</v>
+        <v>526</v>
       </c>
       <c r="D353" s="15">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="E353" s="16">
         <v>0</v>
@@ -8396,16 +8448,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="11">
-        <v>10109</v>
+        <v>10111</v>
       </c>
       <c r="B354" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D354" s="15">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E354" s="16">
         <v>0</v>
@@ -8416,13 +8468,13 @@
         <v>10109</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D355" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E355" s="16">
         <v>0</v>
@@ -8436,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D356" s="15">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="E356" s="16">
         <v>0</v>
@@ -8453,10 +8505,10 @@
         <v>54</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D357" s="15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E357" s="16">
         <v>0</v>
@@ -8464,16 +8516,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="11">
-        <v>30106</v>
+        <v>10109</v>
       </c>
       <c r="B358" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D358" s="15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E358" s="16">
         <v>0</v>
@@ -8481,16 +8533,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="11">
-        <v>30106</v>
+        <v>10109</v>
       </c>
       <c r="B359" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D359" s="15">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E359" s="16">
         <v>0</v>
@@ -8498,16 +8550,16 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="11">
-        <v>30106</v>
+        <v>10109</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D360" s="15">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="E360" s="16">
         <v>0</v>
@@ -8515,16 +8567,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="11">
-        <v>10110</v>
+        <v>30106</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>519</v>
+        <v>270</v>
       </c>
       <c r="D361" s="15">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E361" s="16">
         <v>0</v>
@@ -8532,16 +8584,16 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="11">
-        <v>10110</v>
+        <v>30106</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D362" s="15">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="E362" s="16">
         <v>0</v>
@@ -8549,16 +8601,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="10">
-        <v>10110</v>
+        <v>30106</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="D363" s="14">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="E363" s="16">
         <v>0</v>
@@ -8572,7 +8624,7 @@
         <v>54</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D364" s="15">
         <v>200</v>
@@ -8589,10 +8641,10 @@
         <v>54</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>522</v>
+        <v>273</v>
       </c>
       <c r="D365" s="15">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E365" s="16">
         <v>0</v>
@@ -8606,10 +8658,10 @@
         <v>54</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D366" s="14">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="E366" s="16">
         <v>0</v>
@@ -8623,10 +8675,10 @@
         <v>54</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>274</v>
+        <v>521</v>
       </c>
       <c r="D367" s="15">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E367" s="16">
         <v>0</v>
@@ -8634,16 +8686,16 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
-        <v>7</v>
+        <v>10110</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>275</v>
+        <v>522</v>
       </c>
       <c r="D368" s="14">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E368" s="16">
         <v>0</v>
@@ -8651,16 +8703,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="11">
-        <v>1106</v>
+        <v>10110</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>276</v>
+        <v>523</v>
       </c>
       <c r="D369" s="15">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="E369" s="16">
         <v>0</v>
@@ -8668,16 +8720,16 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="10">
-        <v>1106</v>
+        <v>10110</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D370" s="14">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E370" s="16">
         <v>0</v>
@@ -8685,16 +8737,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="11">
-        <v>1106</v>
+        <v>7</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D371" s="15">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="E371" s="16">
         <v>0</v>
@@ -8702,16 +8754,16 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="11">
-        <v>1603</v>
+        <v>1106</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D372" s="15">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="E372" s="16">
         <v>0</v>
@@ -8719,16 +8771,16 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
-        <v>1603</v>
+        <v>1106</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D373" s="14">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="E373" s="16">
         <v>0</v>
@@ -8736,16 +8788,16 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="11">
-        <v>1603</v>
+        <v>1106</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D374" s="15">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="E374" s="16">
         <v>0</v>
@@ -8753,16 +8805,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="11">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B375" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D375" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E375" s="16">
         <v>0</v>
@@ -8770,16 +8822,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="11">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="D376" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E376" s="16">
         <v>0</v>
@@ -8787,16 +8839,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="10">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D377" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E377" s="16">
         <v>0</v>
@@ -8804,16 +8856,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="11">
-        <v>603</v>
+        <v>1601</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D378" s="15">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E378" s="16">
         <v>0</v>
@@ -8821,16 +8873,16 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="11">
-        <v>1001</v>
+        <v>1601</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>284</v>
+        <v>615</v>
       </c>
       <c r="D379" s="15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E379" s="16">
         <v>0</v>
@@ -8838,16 +8890,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="11">
-        <v>7</v>
+        <v>1601</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="D380" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E380" s="16">
         <v>0</v>
@@ -8855,16 +8907,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="10">
-        <v>802</v>
+        <v>1601</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D381" s="14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E381" s="16">
         <v>0</v>
@@ -8872,16 +8924,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="11">
-        <v>802</v>
+        <v>603</v>
       </c>
       <c r="B382" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D382" s="15">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E382" s="16">
         <v>0</v>
@@ -8889,16 +8941,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="10">
-        <v>802</v>
+        <v>1001</v>
       </c>
       <c r="B383" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D383" s="14">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E383" s="16">
         <v>0</v>
@@ -8906,16 +8958,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="11">
-        <v>802</v>
+        <v>7</v>
       </c>
       <c r="B384" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>288</v>
+        <v>507</v>
       </c>
       <c r="D384" s="15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E384" s="16">
         <v>0</v>
@@ -8923,16 +8975,16 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>601</v>
+        <v>285</v>
       </c>
       <c r="D385" s="14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E385" s="16">
         <v>0</v>
@@ -8946,10 +8998,10 @@
         <v>0</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D386" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E386" s="16">
         <v>0</v>
@@ -8963,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D387" s="14">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E387" s="16">
         <v>0</v>
@@ -8980,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D388" s="15">
         <v>11</v>
@@ -8991,16 +9043,16 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="11">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>292</v>
+        <v>601</v>
       </c>
       <c r="D389" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E389" s="16">
         <v>0</v>
@@ -9014,10 +9066,10 @@
         <v>0</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D390" s="14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E390" s="16">
         <v>0</v>
@@ -9031,10 +9083,10 @@
         <v>0</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D391" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E391" s="16">
         <v>0</v>
@@ -9048,10 +9100,10 @@
         <v>0</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D392" s="14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E392" s="16">
         <v>0</v>
@@ -9059,13 +9111,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B393" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D393" s="15">
         <v>1</v>
@@ -9076,16 +9128,16 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D394" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E394" s="16">
         <v>0</v>
@@ -9093,13 +9145,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B395" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D395" s="15">
         <v>1</v>
@@ -9116,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D396" s="14">
         <v>1</v>
@@ -9130,13 +9182,13 @@
         <v>801</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>602</v>
+        <v>296</v>
       </c>
       <c r="D397" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E397" s="16">
         <v>0</v>
@@ -9150,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D398" s="15">
         <v>1</v>
@@ -9161,13 +9213,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="11">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B399" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D399" s="15">
         <v>1</v>
@@ -9178,16 +9230,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="11">
-        <v>10124</v>
+        <v>802</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>537</v>
+        <v>299</v>
       </c>
       <c r="D400" s="15">
-        <v>1800</v>
+        <v>1</v>
       </c>
       <c r="E400" s="16">
         <v>0</v>
@@ -9195,16 +9247,16 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="10">
-        <v>10124</v>
+        <v>801</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="D401" s="14">
-        <v>2700</v>
+        <v>-1</v>
       </c>
       <c r="E401" s="16">
         <v>0</v>
@@ -9212,16 +9264,16 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="11">
-        <v>10124</v>
+        <v>801</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D402" s="15">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="E402" s="16">
         <v>0</v>
@@ -9229,16 +9281,16 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="11">
-        <v>10124</v>
+        <v>802</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="D403" s="15">
-        <v>2700</v>
+        <v>1</v>
       </c>
       <c r="E403" s="16">
         <v>0</v>
@@ -9252,10 +9304,10 @@
         <v>54</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D404" s="15">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E404" s="16">
         <v>0</v>
@@ -9263,16 +9315,16 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="11">
-        <v>28</v>
+        <v>10124</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>303</v>
+        <v>538</v>
       </c>
       <c r="D405" s="15">
-        <v>80</v>
+        <v>2700</v>
       </c>
       <c r="E405" s="16">
         <v>0</v>
@@ -9280,16 +9332,16 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="11">
-        <v>22</v>
+        <v>10124</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D406" s="15">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="E406" s="16">
         <v>0</v>
@@ -9297,16 +9349,16 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="11">
-        <v>206</v>
+        <v>10124</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>305</v>
+        <v>539</v>
       </c>
       <c r="D407" s="15">
-        <v>108</v>
+        <v>2700</v>
       </c>
       <c r="E407" s="16">
         <v>0</v>
@@ -9314,16 +9366,16 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="11">
-        <v>10134</v>
+        <v>10124</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>306</v>
+        <v>540</v>
       </c>
       <c r="D408" s="15">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="E408" s="16">
         <v>0</v>
@@ -9331,16 +9383,16 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="11">
-        <v>10107</v>
+        <v>28</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D409" s="15">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E409" s="16">
         <v>0</v>
@@ -9348,16 +9400,16 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="11">
-        <v>10134</v>
+        <v>22</v>
       </c>
       <c r="B410" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D410" s="15">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E410" s="16">
         <v>0</v>
@@ -9365,16 +9417,16 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
-        <v>10134</v>
+        <v>206</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D411" s="14">
-        <v>3200</v>
+        <v>108</v>
       </c>
       <c r="E411" s="16">
         <v>0</v>
@@ -9382,16 +9434,16 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="11">
-        <v>10107</v>
+        <v>10134</v>
       </c>
       <c r="B412" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D412" s="15">
-        <v>1600</v>
+        <v>240</v>
       </c>
       <c r="E412" s="16">
         <v>0</v>
@@ -9405,10 +9457,10 @@
         <v>54</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D413" s="15">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="E413" s="16">
         <v>0</v>
@@ -9416,16 +9468,16 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="11">
-        <v>10107</v>
+        <v>10134</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D414" s="15">
-        <v>120</v>
+        <v>3200</v>
       </c>
       <c r="E414" s="16">
         <v>0</v>
@@ -9433,16 +9485,16 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="11">
-        <v>10107</v>
+        <v>10134</v>
       </c>
       <c r="B415" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D415" s="15">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E415" s="16">
         <v>0</v>
@@ -9453,13 +9505,13 @@
         <v>10107</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D416" s="14">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="E416" s="16">
         <v>0</v>
@@ -9473,10 +9525,10 @@
         <v>54</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>518</v>
+        <v>309</v>
       </c>
       <c r="D417" s="15">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="E417" s="16">
         <v>0</v>
@@ -9484,16 +9536,16 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="11">
-        <v>30101</v>
+        <v>10107</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D418" s="15">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E418" s="16">
         <v>0</v>
@@ -9501,16 +9553,16 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="11">
-        <v>30101</v>
+        <v>10107</v>
       </c>
       <c r="B419" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D419" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E419" s="16">
         <v>0</v>
@@ -9518,16 +9570,16 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="11">
-        <v>30101</v>
+        <v>10107</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D420" s="15">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="E420" s="16">
         <v>0</v>
@@ -9535,16 +9587,16 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="10">
-        <v>30105</v>
+        <v>10107</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>316</v>
+        <v>518</v>
       </c>
       <c r="D421" s="14">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="E421" s="16">
         <v>0</v>
@@ -9552,16 +9604,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="11">
-        <v>30105</v>
+        <v>30101</v>
       </c>
       <c r="B422" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D422" s="15">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E422" s="16">
         <v>0</v>
@@ -9569,16 +9621,16 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="11">
-        <v>30105</v>
+        <v>30101</v>
       </c>
       <c r="B423" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D423" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E423" s="16">
         <v>0</v>
@@ -9586,16 +9638,16 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="11">
-        <v>20102</v>
+        <v>30101</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>569</v>
+        <v>315</v>
       </c>
       <c r="D424" s="15">
-        <v>-150</v>
+        <v>97</v>
       </c>
       <c r="E424" s="16">
         <v>0</v>
@@ -9603,16 +9655,16 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="11">
-        <v>20102</v>
+        <v>30105</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>603</v>
+        <v>316</v>
       </c>
       <c r="D425" s="15">
-        <v>-30</v>
+        <v>130</v>
       </c>
       <c r="E425" s="16">
         <v>0</v>
@@ -9620,16 +9672,16 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="11">
-        <v>20202</v>
+        <v>30105</v>
       </c>
       <c r="B426" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D426" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E426" s="16">
         <v>0</v>
@@ -9637,16 +9689,16 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="10">
-        <v>20402</v>
+        <v>30105</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D427" s="14">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="E427" s="16">
         <v>0</v>
@@ -9654,16 +9706,16 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="11">
-        <v>20402</v>
+        <v>20102</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>321</v>
+        <v>569</v>
       </c>
       <c r="D428" s="15">
-        <v>14</v>
+        <v>-150</v>
       </c>
       <c r="E428" s="16">
         <v>0</v>
@@ -9671,16 +9723,16 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="11">
-        <v>20402</v>
+        <v>20102</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>321</v>
+        <v>603</v>
       </c>
       <c r="D429" s="15">
-        <v>316</v>
+        <v>-30</v>
       </c>
       <c r="E429" s="16">
         <v>0</v>
@@ -9688,16 +9740,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="11">
-        <v>20402</v>
+        <v>20202</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D430" s="15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E430" s="16">
         <v>0</v>
@@ -9711,10 +9763,10 @@
         <v>11</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D431" s="15">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="E431" s="16">
         <v>0</v>
@@ -9728,10 +9780,10 @@
         <v>11</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D432" s="15">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="E432" s="16">
         <v>0</v>
@@ -9745,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D433" s="15">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E433" s="16">
         <v>0</v>
@@ -9759,13 +9811,13 @@
         <v>20402</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D434" s="15">
-        <v>1200</v>
+        <v>2</v>
       </c>
       <c r="E434" s="16">
         <v>0</v>
@@ -9773,16 +9825,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="10">
-        <v>10136</v>
+        <v>20402</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>547</v>
+        <v>322</v>
       </c>
       <c r="D435" s="14">
-        <v>1600</v>
+        <v>120</v>
       </c>
       <c r="E435" s="16">
         <v>0</v>
@@ -9790,16 +9842,16 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="11">
-        <v>10102</v>
+        <v>20402</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="D436" s="15">
-        <v>1600</v>
+        <v>6</v>
       </c>
       <c r="E436" s="16">
         <v>0</v>
@@ -9807,16 +9859,16 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="11">
-        <v>10136</v>
+        <v>20402</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>548</v>
+        <v>324</v>
       </c>
       <c r="D437" s="15">
-        <v>2000</v>
+        <v>134</v>
       </c>
       <c r="E437" s="16">
         <v>0</v>
@@ -9824,16 +9876,16 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="11">
-        <v>10102</v>
+        <v>20402</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>554</v>
+        <v>11</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>510</v>
+        <v>324</v>
       </c>
       <c r="D438" s="15">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="E438" s="16">
         <v>0</v>
@@ -9841,16 +9893,16 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="11">
-        <v>10102</v>
+        <v>10136</v>
       </c>
       <c r="B439" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="D439" s="15">
-        <v>35000</v>
+        <v>1600</v>
       </c>
       <c r="E439" s="16">
         <v>0</v>
@@ -9861,13 +9913,13 @@
         <v>10102</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>325</v>
+        <v>509</v>
       </c>
       <c r="D440" s="15">
-        <v>2025</v>
+        <v>1600</v>
       </c>
       <c r="E440" s="16">
         <v>0</v>
@@ -9875,16 +9927,16 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="11">
-        <v>10102</v>
+        <v>10136</v>
       </c>
       <c r="B441" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>325</v>
+        <v>548</v>
       </c>
       <c r="D441" s="15">
-        <v>1250</v>
+        <v>2000</v>
       </c>
       <c r="E441" s="16">
         <v>0</v>
@@ -9895,13 +9947,13 @@
         <v>10102</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>325</v>
+        <v>510</v>
       </c>
       <c r="D442" s="14">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E442" s="16">
         <v>0</v>
@@ -9912,13 +9964,13 @@
         <v>10102</v>
       </c>
       <c r="B443" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="D443" s="15">
-        <v>540</v>
+        <v>35000</v>
       </c>
       <c r="E443" s="16">
         <v>0</v>
@@ -9929,13 +9981,13 @@
         <v>10102</v>
       </c>
       <c r="B444" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D444" s="15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E444" s="16">
         <v>0</v>
@@ -9946,13 +9998,13 @@
         <v>10102</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>511</v>
+        <v>325</v>
       </c>
       <c r="D445" s="14">
-        <v>120</v>
+        <v>2025</v>
       </c>
       <c r="E445" s="16">
         <v>0</v>
@@ -9966,10 +10018,10 @@
         <v>54</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D446" s="15">
-        <v>126</v>
+        <v>1250</v>
       </c>
       <c r="E446" s="16">
         <v>0</v>
@@ -9977,13 +10029,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="11">
-        <v>20402</v>
+        <v>10102</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D447" s="15">
         <v>600</v>
@@ -9994,16 +10046,16 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="11">
-        <v>20112</v>
+        <v>10102</v>
       </c>
       <c r="B448" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D448" s="15">
-        <v>97</v>
+        <v>540</v>
       </c>
       <c r="E448" s="16">
         <v>0</v>
@@ -10011,16 +10063,16 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="11">
-        <v>20203</v>
+        <v>10102</v>
       </c>
       <c r="B449" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D449" s="15">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E449" s="16">
         <v>0</v>
@@ -10028,16 +10080,16 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
-        <v>20403</v>
+        <v>10102</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D450" s="14">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="E450" s="16">
         <v>0</v>
@@ -10045,16 +10097,16 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="11">
-        <v>20403</v>
+        <v>20402</v>
       </c>
       <c r="B451" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D451" s="15">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="E451" s="16">
         <v>0</v>
@@ -10062,16 +10114,16 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="11">
-        <v>20403</v>
+        <v>20112</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D452" s="15">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E452" s="16">
         <v>0</v>
@@ -10079,16 +10131,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="11">
-        <v>20403</v>
+        <v>20103</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>332</v>
+        <v>616</v>
       </c>
       <c r="D453" s="15">
-        <v>8</v>
+        <v>-15</v>
       </c>
       <c r="E453" s="16">
         <v>0</v>
@@ -10096,16 +10148,16 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="10">
-        <v>20403</v>
+        <v>20203</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>333</v>
+        <v>504</v>
       </c>
       <c r="D454" s="14">
-        <v>780</v>
+        <v>91</v>
       </c>
       <c r="E454" s="16">
         <v>0</v>
@@ -10113,16 +10165,16 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="11">
-        <v>10133</v>
+        <v>20403</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D455" s="15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E455" s="16">
         <v>0</v>
@@ -10130,16 +10182,16 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="11">
-        <v>10103</v>
+        <v>20403</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D456" s="15">
-        <v>1200</v>
+        <v>95</v>
       </c>
       <c r="E456" s="16">
         <v>0</v>
@@ -10147,16 +10199,16 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="11">
-        <v>10103</v>
+        <v>20403</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="D457" s="15">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="E457" s="16">
         <v>0</v>
@@ -10164,16 +10216,16 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="11">
-        <v>10103</v>
+        <v>20403</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D458" s="15">
-        <v>450</v>
+        <v>8</v>
       </c>
       <c r="E458" s="16">
         <v>0</v>
@@ -10181,16 +10233,16 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="10">
-        <v>10103</v>
+        <v>20403</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D459" s="14">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="E459" s="16">
         <v>0</v>
@@ -10198,16 +10250,16 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="11">
-        <v>10103</v>
+        <v>10133</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>513</v>
+        <v>334</v>
       </c>
       <c r="D460" s="15">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="E460" s="16">
         <v>0</v>
@@ -10221,10 +10273,10 @@
         <v>54</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>514</v>
+        <v>335</v>
       </c>
       <c r="D461" s="15">
-        <v>144</v>
+        <v>1200</v>
       </c>
       <c r="E461" s="16">
         <v>0</v>
@@ -10238,10 +10290,10 @@
         <v>54</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D462" s="15">
-        <v>63</v>
+        <v>600</v>
       </c>
       <c r="E462" s="16">
         <v>0</v>
@@ -10249,16 +10301,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="11">
-        <v>20112</v>
+        <v>10103</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>572</v>
+        <v>336</v>
       </c>
       <c r="D463" s="15">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="E463" s="16">
         <v>0</v>
@@ -10266,16 +10318,16 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="11">
-        <v>20402</v>
+        <v>10103</v>
       </c>
       <c r="B464" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D464" s="15">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="E464" s="16">
         <v>0</v>
@@ -10283,16 +10335,16 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="11">
-        <v>15</v>
+        <v>10103</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>338</v>
+        <v>513</v>
       </c>
       <c r="D465" s="15">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E465" s="16">
         <v>0</v>
@@ -10300,16 +10352,16 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="10">
-        <v>15</v>
+        <v>10103</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>339</v>
+        <v>514</v>
       </c>
       <c r="D466" s="14">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E466" s="16">
         <v>0</v>
@@ -10317,16 +10369,16 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="11">
-        <v>15</v>
+        <v>10103</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>340</v>
+        <v>515</v>
       </c>
       <c r="D467" s="15">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E467" s="16">
         <v>0</v>
@@ -10334,16 +10386,16 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="11">
-        <v>15</v>
+        <v>20112</v>
       </c>
       <c r="B468" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>341</v>
+        <v>572</v>
       </c>
       <c r="D468" s="15">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E468" s="16">
         <v>0</v>
@@ -10351,16 +10403,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="11">
-        <v>15</v>
+        <v>20112</v>
       </c>
       <c r="B469" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>342</v>
+        <v>617</v>
       </c>
       <c r="D469" s="15">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E469" s="16">
         <v>0</v>
@@ -10368,16 +10420,16 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="10">
-        <v>15</v>
+        <v>20402</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D470" s="14">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="E470" s="16">
         <v>0</v>
@@ -10391,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D471" s="15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E471" s="16">
         <v>0</v>
@@ -10402,16 +10454,16 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="11">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B472" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D472" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E472" s="16">
         <v>0</v>
@@ -10419,16 +10471,16 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="11">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B473" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D473" s="15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E473" s="16">
         <v>0</v>
@@ -10436,16 +10488,16 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="11">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B474" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D474" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E474" s="16">
         <v>0</v>
@@ -10453,16 +10505,16 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="11">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B475" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D475" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E475" s="16">
         <v>0</v>
@@ -10470,16 +10522,16 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="10">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B476" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D476" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E476" s="16">
         <v>0</v>
@@ -10487,13 +10539,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B477" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D477" s="15">
         <v>1</v>
@@ -10504,16 +10556,16 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B478" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D478" s="15">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E478" s="16">
         <v>0</v>
@@ -10521,16 +10573,16 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="11">
-        <v>1801</v>
+        <v>26</v>
       </c>
       <c r="B479" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D479" s="15">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E479" s="16">
         <v>0</v>
@@ -10538,16 +10590,16 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="11">
-        <v>1802</v>
+        <v>26</v>
       </c>
       <c r="B480" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D480" s="15">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E480" s="16">
         <v>0</v>
@@ -10555,16 +10607,16 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="11">
-        <v>1802</v>
+        <v>26</v>
       </c>
       <c r="B481" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D481" s="15">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="E481" s="16">
         <v>0</v>
@@ -10572,16 +10624,16 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="11">
-        <v>1802</v>
+        <v>26</v>
       </c>
       <c r="B482" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D482" s="15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E482" s="16">
         <v>0</v>
@@ -10589,16 +10641,16 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="11">
-        <v>1802</v>
+        <v>24</v>
       </c>
       <c r="B483" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D483" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E483" s="16">
         <v>0</v>
@@ -10606,16 +10658,16 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="11">
-        <v>1802</v>
+        <v>24</v>
       </c>
       <c r="B484" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D484" s="15">
-        <v>850</v>
+        <v>35</v>
       </c>
       <c r="E484" s="16">
         <v>0</v>
@@ -10623,16 +10675,16 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="11">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B485" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D485" s="15">
-        <v>850</v>
+        <v>41</v>
       </c>
       <c r="E485" s="16">
         <v>0</v>
@@ -10643,13 +10695,13 @@
         <v>1802</v>
       </c>
       <c r="B486" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D486" s="15">
-        <v>-1</v>
+        <v>47</v>
       </c>
       <c r="E486" s="16">
         <v>0</v>
@@ -10660,13 +10712,13 @@
         <v>1802</v>
       </c>
       <c r="B487" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D487" s="15">
-        <v>850</v>
+        <v>-1</v>
       </c>
       <c r="E487" s="16">
         <v>0</v>
@@ -10677,13 +10729,13 @@
         <v>1802</v>
       </c>
       <c r="B488" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D488" s="15">
-        <v>-1</v>
+        <v>850</v>
       </c>
       <c r="E488" s="16">
         <v>0</v>
@@ -10697,7 +10749,7 @@
         <v>552</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D489" s="15">
         <v>-1</v>
@@ -10714,10 +10766,10 @@
         <v>54</v>
       </c>
       <c r="C490" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D490" s="15">
-        <v>1750</v>
+        <v>850</v>
       </c>
       <c r="E490" s="16">
         <v>0</v>
@@ -10731,7 +10783,7 @@
         <v>552</v>
       </c>
       <c r="C491" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D491" s="15">
         <v>-1</v>
@@ -10748,7 +10800,7 @@
         <v>54</v>
       </c>
       <c r="C492" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D492" s="15">
         <v>850</v>
@@ -10759,13 +10811,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="10">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B493" s="10" t="s">
         <v>552</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D493" s="14">
         <v>-1</v>
@@ -10776,16 +10828,16 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="11">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D494" s="15">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="E494" s="16">
         <v>0</v>
@@ -10793,16 +10845,16 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="11">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B495" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D495" s="15">
-        <v>1850</v>
+        <v>-1</v>
       </c>
       <c r="E495" s="16">
         <v>0</v>
@@ -10810,16 +10862,16 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="11">
-        <v>13</v>
+        <v>1802</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C496" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D496" s="15">
-        <v>30</v>
+        <v>1750</v>
       </c>
       <c r="E496" s="16">
         <v>0</v>
@@ -10827,16 +10879,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="11">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D497" s="15">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="E497" s="16">
         <v>0</v>
@@ -10844,16 +10896,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="11">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>566</v>
+        <v>359</v>
       </c>
       <c r="D498" s="15">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="E498" s="16">
         <v>0</v>
@@ -10861,16 +10913,16 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="11">
-        <v>12</v>
+        <v>1801</v>
       </c>
       <c r="B499" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D499" s="15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E499" s="16">
         <v>0</v>
@@ -10878,16 +10930,16 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="11">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B500" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D500" s="15">
-        <v>12</v>
+        <v>1850</v>
       </c>
       <c r="E500" s="16">
         <v>0</v>
@@ -10895,16 +10947,16 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="11">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B501" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D501" s="15">
-        <v>15</v>
+        <v>810</v>
       </c>
       <c r="E501" s="16">
         <v>0</v>
@@ -10912,16 +10964,16 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="11">
-        <v>1701</v>
+        <v>13</v>
       </c>
       <c r="B502" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D502" s="15">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E502" s="16">
         <v>0</v>
@@ -10929,16 +10981,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="11">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B503" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D503" s="15">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E503" s="16">
         <v>0</v>
@@ -10946,16 +10998,16 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="11">
-        <v>1701</v>
+        <v>1801</v>
       </c>
       <c r="B504" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>368</v>
+        <v>566</v>
       </c>
       <c r="D504" s="15">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="E504" s="16">
         <v>0</v>
@@ -10963,16 +11015,16 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="11">
-        <v>1701</v>
+        <v>12</v>
       </c>
       <c r="B505" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C505" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D505" s="15">
-        <v>920</v>
+        <v>3</v>
       </c>
       <c r="E505" s="16">
         <v>0</v>
@@ -10983,13 +11035,13 @@
         <v>1701</v>
       </c>
       <c r="B506" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C506" s="11" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D506" s="15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E506" s="16">
         <v>0</v>
@@ -11000,13 +11052,13 @@
         <v>1701</v>
       </c>
       <c r="B507" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C507" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D507" s="15">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E507" s="16">
         <v>0</v>
@@ -11017,13 +11069,13 @@
         <v>1701</v>
       </c>
       <c r="B508" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C508" s="11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D508" s="15">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E508" s="16">
         <v>0</v>
@@ -11034,13 +11086,13 @@
         <v>1701</v>
       </c>
       <c r="B509" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C509" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D509" s="15">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E509" s="16">
         <v>0</v>
@@ -11051,13 +11103,13 @@
         <v>1701</v>
       </c>
       <c r="B510" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C510" s="11" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D510" s="15">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E510" s="16">
         <v>0</v>
@@ -11071,10 +11123,10 @@
         <v>54</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D511" s="14">
-        <v>45</v>
+        <v>920</v>
       </c>
       <c r="E511" s="16">
         <v>0</v>
@@ -11088,10 +11140,10 @@
         <v>54</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D512" s="15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E512" s="16">
         <v>0</v>
@@ -11105,10 +11157,10 @@
         <v>54</v>
       </c>
       <c r="C513" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D513" s="15">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E513" s="16">
         <v>0</v>
@@ -11122,10 +11174,10 @@
         <v>54</v>
       </c>
       <c r="C514" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D514" s="15">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E514" s="16">
         <v>0</v>
@@ -11139,10 +11191,10 @@
         <v>54</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D515" s="14">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E515" s="16">
         <v>0</v>
@@ -11150,16 +11202,16 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="11">
-        <v>7</v>
+        <v>1701</v>
       </c>
       <c r="B516" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C516" s="11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D516" s="15">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E516" s="16">
         <v>0</v>
@@ -11167,16 +11219,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="10">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D517" s="14">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="E517" s="16">
         <v>0</v>
@@ -11184,16 +11236,16 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="11">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C518" s="11" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D518" s="15">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="E518" s="16">
         <v>0</v>
@@ -11201,16 +11253,16 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="11">
-        <v>22</v>
+        <v>1701</v>
       </c>
       <c r="B519" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C519" s="11" t="s">
-        <v>604</v>
+        <v>377</v>
       </c>
       <c r="D519" s="15">
-        <v>21600</v>
+        <v>20</v>
       </c>
       <c r="E519" s="16">
         <v>0</v>
@@ -11218,16 +11270,16 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="10">
-        <v>22</v>
+        <v>1701</v>
       </c>
       <c r="B520" s="10" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>604</v>
+        <v>378</v>
       </c>
       <c r="D520" s="14">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="E520" s="16">
         <v>0</v>
@@ -11235,16 +11287,16 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="11">
-        <v>802</v>
+        <v>1701</v>
       </c>
       <c r="B521" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D521" s="15">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E521" s="16">
         <v>0</v>
@@ -11252,16 +11304,16 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="10">
-        <v>802</v>
+        <v>7</v>
       </c>
       <c r="B522" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D522" s="14">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E522" s="16">
         <v>0</v>
@@ -11269,16 +11321,16 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="11">
-        <v>802</v>
+        <v>1801</v>
       </c>
       <c r="B523" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D523" s="15">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="E523" s="16">
         <v>0</v>
@@ -11286,16 +11338,16 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="11">
-        <v>802</v>
+        <v>1801</v>
       </c>
       <c r="B524" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C524" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D524" s="15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E524" s="16">
         <v>0</v>
@@ -11303,16 +11355,16 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="11">
-        <v>802</v>
+        <v>22</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>387</v>
+        <v>604</v>
       </c>
       <c r="D525" s="15">
-        <v>1</v>
+        <v>21600</v>
       </c>
       <c r="E525" s="16">
         <v>0</v>
@@ -11320,16 +11372,16 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="10">
-        <v>802</v>
+        <v>22</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>388</v>
+        <v>604</v>
       </c>
       <c r="D526" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E526" s="16">
         <v>0</v>
@@ -11343,10 +11395,10 @@
         <v>0</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D527" s="15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E527" s="16">
         <v>0</v>
@@ -11360,10 +11412,10 @@
         <v>0</v>
       </c>
       <c r="C528" s="11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D528" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E528" s="16">
         <v>0</v>
@@ -11377,10 +11429,10 @@
         <v>0</v>
       </c>
       <c r="C529" s="11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D529" s="15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E529" s="16">
         <v>0</v>
@@ -11394,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D530" s="14">
         <v>1</v>
@@ -11411,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="C531" s="11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D531" s="15">
         <v>1</v>
@@ -11428,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="C532" s="11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D532" s="15">
         <v>1</v>
@@ -11445,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="C533" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D533" s="15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E533" s="16">
         <v>0</v>
@@ -11462,10 +11514,10 @@
         <v>0</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D534" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E534" s="16">
         <v>0</v>
@@ -11479,10 +11531,10 @@
         <v>0</v>
       </c>
       <c r="C535" s="11" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D535" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E535" s="16">
         <v>0</v>
@@ -11496,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>551</v>
+        <v>392</v>
       </c>
       <c r="D536" s="14">
         <v>1</v>
@@ -11507,13 +11559,13 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B537" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C537" s="11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D537" s="15">
         <v>1</v>
@@ -11530,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="C538" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D538" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E538" s="16">
         <v>0</v>
@@ -11547,10 +11599,10 @@
         <v>0</v>
       </c>
       <c r="C539" s="11" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D539" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E539" s="16">
         <v>0</v>
@@ -11558,13 +11610,13 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B540" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C540" s="11" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D540" s="15">
         <v>1</v>
@@ -11575,16 +11627,16 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="11">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B541" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C541" s="11" t="s">
-        <v>579</v>
+        <v>397</v>
       </c>
       <c r="D541" s="15">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E541" s="16">
         <v>0</v>
@@ -11592,13 +11644,13 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="11">
-        <v>7</v>
+        <v>802</v>
       </c>
       <c r="B542" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C542" s="11" t="s">
-        <v>402</v>
+        <v>551</v>
       </c>
       <c r="D542" s="15">
         <v>1</v>
@@ -11609,13 +11661,13 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="10">
-        <v>1406</v>
+        <v>801</v>
       </c>
       <c r="B543" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D543" s="14">
         <v>1</v>
@@ -11626,16 +11678,16 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="11">
-        <v>7</v>
+        <v>802</v>
       </c>
       <c r="B544" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C544" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D544" s="15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E544" s="16">
         <v>0</v>
@@ -11643,13 +11695,13 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="10">
-        <v>1404</v>
+        <v>802</v>
       </c>
       <c r="B545" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D545" s="14">
         <v>1</v>
@@ -11660,13 +11712,13 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="11">
-        <v>1403</v>
+        <v>801</v>
       </c>
       <c r="B546" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C546" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D546" s="15">
         <v>1</v>
@@ -11677,16 +11729,16 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="11">
-        <v>1404</v>
+        <v>801</v>
       </c>
       <c r="B547" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C547" s="11" t="s">
-        <v>407</v>
+        <v>579</v>
       </c>
       <c r="D547" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E547" s="16">
         <v>0</v>
@@ -11694,13 +11746,13 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="11">
-        <v>1403</v>
+        <v>7</v>
       </c>
       <c r="B548" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C548" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D548" s="15">
         <v>1</v>
@@ -11711,13 +11763,13 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="11">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B549" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C549" s="11" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D549" s="15">
         <v>1</v>
@@ -11728,16 +11780,16 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="11">
-        <v>1402</v>
+        <v>7</v>
       </c>
       <c r="B550" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C550" s="11" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D550" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E550" s="16">
         <v>0</v>
@@ -11745,16 +11797,16 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="10">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B551" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D551" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E551" s="16">
         <v>0</v>
@@ -11762,13 +11814,13 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="11">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B552" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C552" s="11" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D552" s="15">
         <v>1</v>
@@ -11779,13 +11831,13 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="11">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B553" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C553" s="11" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D553" s="15">
         <v>1</v>
@@ -11796,13 +11848,13 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="10">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B554" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D554" s="14">
         <v>1</v>
@@ -11819,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="C555" s="11" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D555" s="15">
         <v>1</v>
@@ -11836,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="C556" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D556" s="15">
         <v>1</v>
@@ -11853,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="C557" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D557" s="15">
         <v>2</v>
@@ -11870,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D558" s="14">
         <v>1</v>
@@ -11881,13 +11933,13 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="11">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B559" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C559" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D559" s="15">
         <v>1</v>
@@ -11898,13 +11950,13 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="11">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B560" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C560" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D560" s="15">
         <v>1</v>
@@ -11915,16 +11967,16 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="11">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B561" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C561" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D561" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E561" s="16">
         <v>0</v>
@@ -11932,13 +11984,13 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="10">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B562" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D562" s="14">
         <v>1</v>
@@ -11949,16 +12001,16 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="11">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B563" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C563" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D563" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E563" s="16">
         <v>0</v>
@@ -11966,13 +12018,13 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="11">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B564" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C564" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D564" s="15">
         <v>1</v>
@@ -11983,13 +12035,13 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="11">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B565" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C565" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D565" s="15">
         <v>1</v>
@@ -12000,13 +12052,13 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="10">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="B566" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D566" s="14">
         <v>1</v>
@@ -12023,10 +12075,10 @@
         <v>0</v>
       </c>
       <c r="C567" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D567" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E567" s="16">
         <v>0</v>
@@ -12034,16 +12086,16 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="11">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B568" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C568" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D568" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E568" s="16">
         <v>0</v>
@@ -12051,16 +12103,16 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="10">
-        <v>10124</v>
+        <v>1406</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>541</v>
+        <v>423</v>
       </c>
       <c r="D569" s="14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E569" s="16">
         <v>0</v>
@@ -12068,16 +12120,16 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="11">
-        <v>10124</v>
+        <v>1406</v>
       </c>
       <c r="B570" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C570" s="11" t="s">
-        <v>542</v>
+        <v>424</v>
       </c>
       <c r="D570" s="15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E570" s="16">
         <v>0</v>
@@ -12085,16 +12137,16 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="10">
-        <v>10124</v>
+        <v>1408</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="D571" s="14">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="E571" s="16">
         <v>0</v>
@@ -12102,16 +12154,16 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="11">
-        <v>7</v>
+        <v>1408</v>
       </c>
       <c r="B572" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C572" s="11" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="D572" s="15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E572" s="16">
         <v>0</v>
@@ -12119,13 +12171,13 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="11">
-        <v>7</v>
+        <v>1406</v>
       </c>
       <c r="B573" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C573" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D573" s="15">
         <v>1</v>
@@ -12136,16 +12188,16 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="11">
-        <v>1802</v>
+        <v>1408</v>
       </c>
       <c r="B574" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C574" s="11" t="s">
-        <v>605</v>
+        <v>428</v>
       </c>
       <c r="D574" s="15">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E574" s="16">
         <v>0</v>
@@ -12153,16 +12205,16 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="11">
-        <v>1802</v>
+        <v>10124</v>
       </c>
       <c r="B575" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C575" s="11" t="s">
-        <v>606</v>
+        <v>541</v>
       </c>
       <c r="D575" s="15">
-        <v>-7</v>
+        <v>50</v>
       </c>
       <c r="E575" s="16">
         <v>0</v>
@@ -12170,16 +12222,16 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="11">
-        <v>3501</v>
+        <v>10124</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C576" s="11" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="D576" s="15">
-        <v>-200</v>
+        <v>50</v>
       </c>
       <c r="E576" s="16">
         <v>0</v>
@@ -12187,16 +12239,16 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="11">
-        <v>3501</v>
+        <v>10124</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C577" s="11" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="D577" s="15">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E577" s="16">
         <v>0</v>
@@ -12204,16 +12256,16 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="10">
-        <v>3501</v>
+        <v>7</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D578" s="14">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="E578" s="16">
         <v>0</v>
@@ -12221,16 +12273,16 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="11">
-        <v>3501</v>
+        <v>7</v>
       </c>
       <c r="B579" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C579" s="11" t="s">
-        <v>557</v>
+        <v>429</v>
       </c>
       <c r="D579" s="15">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E579" s="16">
         <v>0</v>
@@ -12238,16 +12290,16 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="11">
-        <v>19</v>
+        <v>1802</v>
       </c>
       <c r="B580" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C580" s="11" t="s">
-        <v>430</v>
+        <v>605</v>
       </c>
       <c r="D580" s="15">
-        <v>150</v>
+        <v>-10</v>
       </c>
       <c r="E580" s="16">
         <v>0</v>
@@ -12255,16 +12307,16 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="11">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="C581" s="11" t="s">
-        <v>431</v>
+        <v>606</v>
       </c>
       <c r="D581" s="15">
-        <v>100</v>
+        <v>-7</v>
       </c>
       <c r="E581" s="16">
         <v>0</v>
@@ -12272,16 +12324,16 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="11">
-        <v>19</v>
+        <v>3501</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C582" s="11" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="D582" s="15">
-        <v>-1</v>
+        <v>-200</v>
       </c>
       <c r="E582" s="16">
         <v>0</v>
@@ -12289,16 +12341,16 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="11">
-        <v>19</v>
+        <v>3501</v>
       </c>
       <c r="B583" s="11" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C583" s="11" t="s">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="D583" s="15">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E583" s="16">
         <v>0</v>
@@ -12306,16 +12358,16 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="10">
-        <v>19</v>
+        <v>3501</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="D584" s="14">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E584" s="16">
         <v>0</v>
@@ -12323,16 +12375,16 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="11">
-        <v>19</v>
+        <v>3501</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>552</v>
+        <v>11</v>
       </c>
       <c r="C585" s="11" t="s">
-        <v>433</v>
+        <v>557</v>
       </c>
       <c r="D585" s="15">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="E585" s="16">
         <v>0</v>
@@ -12346,10 +12398,10 @@
         <v>0</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D586" s="15">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E586" s="16">
         <v>0</v>
@@ -12357,16 +12409,16 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="10">
-        <v>19</v>
+        <v>1801</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D587" s="14">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="E587" s="16">
         <v>0</v>
@@ -12377,13 +12429,13 @@
         <v>19</v>
       </c>
       <c r="B588" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D588" s="15">
-        <v>-1</v>
+        <v>800</v>
       </c>
       <c r="E588" s="16">
         <v>0</v>
@@ -12394,13 +12446,13 @@
         <v>19</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D589" s="15">
-        <v>1240</v>
+        <v>-1</v>
       </c>
       <c r="E589" s="16">
         <v>0</v>
@@ -12414,7 +12466,7 @@
         <v>552</v>
       </c>
       <c r="C590" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D590" s="15">
         <v>-1</v>
@@ -12431,7 +12483,7 @@
         <v>54</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D591" s="15">
         <v>1600</v>
@@ -12445,13 +12497,13 @@
         <v>19</v>
       </c>
       <c r="B592" s="11" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D592" s="15">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="E592" s="16">
         <v>0</v>
@@ -12462,13 +12514,13 @@
         <v>19</v>
       </c>
       <c r="B593" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D593" s="15">
-        <v>800</v>
+        <v>-1</v>
       </c>
       <c r="E593" s="16">
         <v>0</v>
@@ -12479,13 +12531,13 @@
         <v>19</v>
       </c>
       <c r="B594" s="11" t="s">
-        <v>552</v>
+        <v>54</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D594" s="15">
-        <v>-1</v>
+        <v>1400</v>
       </c>
       <c r="E594" s="16">
         <v>0</v>
@@ -12496,13 +12548,13 @@
         <v>19</v>
       </c>
       <c r="B595" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D595" s="15">
-        <v>2000</v>
+        <v>1240</v>
       </c>
       <c r="E595" s="16">
         <v>0</v>
@@ -12516,10 +12568,10 @@
         <v>54</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D596" s="15">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E596" s="16">
         <v>0</v>
@@ -12533,7 +12585,7 @@
         <v>552</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D597" s="15">
         <v>-1</v>
@@ -12544,16 +12596,16 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="11">
-        <v>802</v>
+        <v>19</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D598" s="15">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="E598" s="16">
         <v>0</v>
@@ -12561,16 +12613,16 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="11">
-        <v>802</v>
+        <v>19</v>
       </c>
       <c r="B599" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D599" s="15">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E599" s="16">
         <v>0</v>
@@ -12578,16 +12630,16 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600" s="11">
-        <v>801</v>
+        <v>19</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C600" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D600" s="15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E600" s="16">
         <v>0</v>
@@ -12595,16 +12647,16 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601" s="11">
-        <v>801</v>
+        <v>19</v>
       </c>
       <c r="B601" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C601" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D601" s="15">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E601" s="16">
         <v>0</v>
@@ -12612,16 +12664,16 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602" s="10">
-        <v>20106</v>
+        <v>19</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D602" s="14">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="E602" s="16">
         <v>0</v>
@@ -12629,16 +12681,16 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603" s="11">
-        <v>20405</v>
+        <v>19</v>
       </c>
       <c r="B603" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D603" s="15">
-        <v>46</v>
+        <v>1800</v>
       </c>
       <c r="E603" s="16">
         <v>0</v>
@@ -12646,16 +12698,16 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604" s="11">
-        <v>20405</v>
+        <v>802</v>
       </c>
       <c r="B604" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D604" s="15">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="E604" s="16">
         <v>0</v>
@@ -12663,16 +12715,16 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" s="11">
-        <v>10126</v>
+        <v>802</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D605" s="15">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="E605" s="16">
         <v>0</v>
@@ -12680,16 +12732,16 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606" s="11">
-        <v>10126</v>
+        <v>801</v>
       </c>
       <c r="B606" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D606" s="15">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E606" s="16">
         <v>0</v>
@@ -12697,16 +12749,16 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607" s="11">
-        <v>10121</v>
+        <v>801</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C607" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D607" s="15">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="E607" s="16">
         <v>0</v>
@@ -12714,16 +12766,16 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608" s="11">
-        <v>10126</v>
+        <v>20106</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D608" s="15">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="E608" s="16">
         <v>0</v>
@@ -12731,16 +12783,16 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609" s="11">
-        <v>10121</v>
+        <v>20405</v>
       </c>
       <c r="B609" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>535</v>
+        <v>446</v>
       </c>
       <c r="D609" s="15">
-        <v>480</v>
+        <v>46</v>
       </c>
       <c r="E609" s="16">
         <v>0</v>
@@ -12748,16 +12800,16 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610" s="11">
-        <v>10126</v>
+        <v>20405</v>
       </c>
       <c r="B610" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D610" s="15">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E610" s="16">
         <v>0</v>
@@ -12765,16 +12817,16 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611" s="11">
-        <v>10121</v>
+        <v>10126</v>
       </c>
       <c r="B611" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D611" s="15">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E611" s="16">
         <v>0</v>
@@ -12782,13 +12834,13 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612" s="11">
-        <v>10121</v>
+        <v>10126</v>
       </c>
       <c r="B612" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D612" s="15">
         <v>300</v>
@@ -12802,13 +12854,13 @@
         <v>10121</v>
       </c>
       <c r="B613" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D613" s="15">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="E613" s="16">
         <v>0</v>
@@ -12816,16 +12868,16 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614" s="11">
-        <v>10121</v>
+        <v>10126</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D614" s="15">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="E614" s="16">
         <v>0</v>
@@ -12839,10 +12891,10 @@
         <v>54</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D615" s="15">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="E615" s="16">
         <v>0</v>
@@ -12850,16 +12902,16 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616" s="11">
-        <v>10121</v>
+        <v>10126</v>
       </c>
       <c r="B616" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C616" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D616" s="15">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="E616" s="16">
         <v>0</v>
@@ -12867,13 +12919,13 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="11">
-        <v>10125</v>
+        <v>10121</v>
       </c>
       <c r="B617" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D617" s="15">
         <v>250</v>
@@ -12884,16 +12936,16 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="11">
-        <v>10120</v>
+        <v>10121</v>
       </c>
       <c r="B618" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D618" s="15">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="E618" s="16">
         <v>0</v>
@@ -12901,16 +12953,16 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619" s="11">
-        <v>10125</v>
+        <v>10121</v>
       </c>
       <c r="B619" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>564</v>
+        <v>453</v>
       </c>
       <c r="D619" s="15">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="E619" s="16">
         <v>0</v>
@@ -12918,16 +12970,16 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620" s="11">
-        <v>10120</v>
+        <v>10121</v>
       </c>
       <c r="B620" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D620" s="15">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="E620" s="16">
         <v>0</v>
@@ -12935,16 +12987,16 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621" s="11">
-        <v>10120</v>
+        <v>10121</v>
       </c>
       <c r="B621" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="D621" s="15">
-        <v>640</v>
+        <v>84</v>
       </c>
       <c r="E621" s="16">
         <v>0</v>
@@ -12952,16 +13004,16 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622" s="11">
-        <v>10120</v>
+        <v>10121</v>
       </c>
       <c r="B622" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D622" s="15">
-        <v>600</v>
+        <v>24</v>
       </c>
       <c r="E622" s="16">
         <v>0</v>
@@ -12969,16 +13021,16 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623" s="11">
-        <v>10120</v>
+        <v>10125</v>
       </c>
       <c r="B623" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D623" s="15">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E623" s="16">
         <v>0</v>
@@ -12992,10 +13044,10 @@
         <v>54</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="D624" s="15">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="E624" s="16">
         <v>0</v>
@@ -13003,16 +13055,16 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625" s="11">
-        <v>10120</v>
+        <v>10125</v>
       </c>
       <c r="B625" s="11" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="D625" s="15">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="E625" s="16">
         <v>0</v>
@@ -13026,10 +13078,10 @@
         <v>54</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D626" s="15">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="E626" s="16">
         <v>0</v>
@@ -13037,16 +13089,16 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627" s="11">
-        <v>20104</v>
+        <v>10120</v>
       </c>
       <c r="B627" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D627" s="15">
-        <v>1300</v>
+        <v>640</v>
       </c>
       <c r="E627" s="16">
         <v>0</v>
@@ -13054,16 +13106,16 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628" s="11">
-        <v>20104</v>
+        <v>10120</v>
       </c>
       <c r="B628" s="11" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D628" s="15">
-        <v>44</v>
+        <v>600</v>
       </c>
       <c r="E628" s="16">
         <v>0</v>
@@ -13071,16 +13123,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629" s="11">
-        <v>20104</v>
+        <v>10120</v>
       </c>
       <c r="B629" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D629" s="15">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E629" s="16">
         <v>0</v>
@@ -13088,16 +13140,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630" s="11">
-        <v>20304</v>
+        <v>10120</v>
       </c>
       <c r="B630" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="D630" s="15">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E630" s="16">
         <v>0</v>
@@ -13105,16 +13157,16 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631" s="11">
-        <v>20404</v>
+        <v>10120</v>
       </c>
       <c r="B631" s="11" t="s">
-        <v>554</v>
+        <v>54</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="D631" s="15">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E631" s="16">
         <v>0</v>
@@ -13122,13 +13174,13 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="11">
-        <v>20404</v>
+        <v>10120</v>
       </c>
       <c r="B632" s="11" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D632" s="15">
         <v>72</v>
@@ -13139,16 +13191,16 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="11">
-        <v>20404</v>
+        <v>20104</v>
       </c>
       <c r="B633" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D633" s="15">
-        <v>123</v>
+        <v>1300</v>
       </c>
       <c r="E633" s="16">
         <v>0</v>
@@ -13156,16 +13208,16 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="11">
-        <v>20404</v>
+        <v>20104</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D634" s="15">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E634" s="16">
         <v>0</v>
@@ -13173,16 +13225,16 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="11">
-        <v>20404</v>
+        <v>20104</v>
       </c>
       <c r="B635" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D635" s="15">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E635" s="16">
         <v>0</v>
@@ -13190,16 +13242,16 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="11">
-        <v>20404</v>
+        <v>20304</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>468</v>
+        <v>573</v>
       </c>
       <c r="D636" s="15">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E636" s="16">
         <v>0</v>
@@ -13207,16 +13259,16 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
-        <v>10128</v>
+        <v>20404</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D637" s="13">
-        <v>1200</v>
+        <v>72</v>
       </c>
       <c r="E637" s="13">
         <v>0</v>
@@ -13224,16 +13276,16 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
-        <v>10128</v>
+        <v>20404</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D638" s="13">
-        <v>825</v>
+        <v>3</v>
       </c>
       <c r="E638" s="13">
         <v>0</v>
@@ -13241,16 +13293,16 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
-        <v>10104</v>
+        <v>20404</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D639" s="13">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="E639" s="13">
         <v>0</v>
@@ -13258,16 +13310,16 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
-        <v>10104</v>
+        <v>20404</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D640" s="13">
-        <v>900</v>
+        <v>123</v>
       </c>
       <c r="E640" s="13">
         <v>0</v>
@@ -13275,16 +13327,16 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
-        <v>10104</v>
+        <v>20404</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D641" s="13">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="E641" s="13">
         <v>0</v>
@@ -13292,16 +13344,16 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
-        <v>10104</v>
+        <v>20404</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D642" s="13">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E642" s="13">
         <v>0</v>
@@ -13309,16 +13361,16 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
-        <v>10104</v>
+        <v>10128</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D643" s="13">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E643" s="13">
         <v>0</v>
@@ -13326,16 +13378,16 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
-        <v>10104</v>
+        <v>10128</v>
       </c>
       <c r="B644" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="D644" s="13">
-        <v>160</v>
+        <v>825</v>
       </c>
       <c r="E644" s="13">
         <v>0</v>
@@ -13349,10 +13401,10 @@
         <v>54</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D645" s="13">
-        <v>144</v>
+        <v>900</v>
       </c>
       <c r="E645" s="13">
         <v>0</v>
@@ -13360,16 +13412,16 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
-        <v>31</v>
+        <v>10104</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D646" s="13">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="E646" s="13">
         <v>0</v>
@@ -13377,16 +13429,16 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
-        <v>31</v>
+        <v>10104</v>
       </c>
       <c r="B647" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D647" s="13">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="E647" s="13">
         <v>0</v>
@@ -13394,16 +13446,16 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
-        <v>30117</v>
+        <v>10104</v>
       </c>
       <c r="B648" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D648" s="13">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E648" s="13">
         <v>0</v>
@@ -13411,16 +13463,16 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
-        <v>30117</v>
+        <v>10104</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D649" s="13">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E649" s="13">
         <v>0</v>
@@ -13428,16 +13480,16 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
-        <v>30117</v>
+        <v>10104</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="D650" s="13">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="E650" s="13">
         <v>0</v>
@@ -13445,16 +13497,16 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
-        <v>30117</v>
+        <v>10104</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D651" s="13">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="E651" s="13">
         <v>0</v>
@@ -13462,16 +13514,16 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
-        <v>30117</v>
+        <v>31</v>
       </c>
       <c r="B652" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="D652" s="13">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="E652" s="13">
         <v>0</v>
@@ -13479,16 +13531,16 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
-        <v>30117</v>
+        <v>31</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D653" s="13">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E653" s="13">
         <v>0</v>
@@ -13496,16 +13548,16 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
-        <v>20106</v>
+        <v>30117</v>
       </c>
       <c r="B654" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D654" s="13">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="E654" s="13">
         <v>0</v>
@@ -13513,16 +13565,16 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
-        <v>20106</v>
+        <v>30117</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D655" s="13">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="E655" s="13">
         <v>0</v>
@@ -13530,16 +13582,16 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
-        <v>20106</v>
+        <v>30117</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
       <c r="D656" s="13">
-        <v>-10</v>
+        <v>300</v>
       </c>
       <c r="E656" s="13">
         <v>0</v>
@@ -13547,16 +13599,16 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
-        <v>20106</v>
+        <v>30117</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="D657" s="13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E657" s="13">
         <v>0</v>
@@ -13564,16 +13616,16 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
-        <v>20405</v>
+        <v>30117</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>483</v>
+        <v>550</v>
       </c>
       <c r="D658" s="13">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E658" s="13">
         <v>0</v>
@@ -13581,16 +13633,16 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
-        <v>20405</v>
+        <v>30117</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D659" s="13">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="E659" s="13">
         <v>0</v>
@@ -13598,16 +13650,16 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
-        <v>20405</v>
+        <v>20106</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D660" s="13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E660" s="13">
         <v>0</v>
@@ -13615,16 +13667,16 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
-        <v>10118</v>
+        <v>20106</v>
       </c>
       <c r="B661" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D661" s="13">
-        <v>1200</v>
+        <v>90</v>
       </c>
       <c r="E661" s="13">
         <v>0</v>
@@ -13632,16 +13684,16 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
-        <v>10118</v>
+        <v>20106</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>487</v>
+        <v>607</v>
       </c>
       <c r="D662" s="13">
-        <v>1200</v>
+        <v>-10</v>
       </c>
       <c r="E662" s="13">
         <v>0</v>
@@ -13649,16 +13701,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663" s="2">
-        <v>10118</v>
+        <v>20106</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="D663" s="13">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E663" s="13">
         <v>0</v>
@@ -13666,16 +13718,16 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
-        <v>10118</v>
+        <v>20405</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D664" s="13">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="E664" s="13">
         <v>0</v>
@@ -13683,16 +13735,16 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
-        <v>10118</v>
+        <v>20405</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D665" s="13">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="E665" s="13">
         <v>0</v>
@@ -13700,16 +13752,16 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
-        <v>10118</v>
+        <v>20405</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D666" s="13">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E666" s="13">
         <v>0</v>
@@ -13723,10 +13775,10 @@
         <v>0</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D667" s="13">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="E667" s="13">
         <v>0</v>
@@ -13737,13 +13789,13 @@
         <v>10118</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D668" s="13">
-        <v>175</v>
+        <v>1200</v>
       </c>
       <c r="E668" s="13">
         <v>0</v>
@@ -13757,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D669" s="13">
         <v>225</v>
@@ -13774,10 +13826,10 @@
         <v>54</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D670" s="13">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="E670" s="13">
         <v>0</v>
@@ -13788,13 +13840,13 @@
         <v>10118</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D671" s="13">
-        <v>97</v>
+        <v>500</v>
       </c>
       <c r="E671" s="13">
         <v>0</v>
@@ -13808,10 +13860,10 @@
         <v>0</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D672" s="13">
-        <v>94</v>
+        <v>950</v>
       </c>
       <c r="E672" s="13">
         <v>0</v>
@@ -13822,13 +13874,13 @@
         <v>10118</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D673" s="13">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E673" s="13">
         <v>0</v>
@@ -13839,13 +13891,13 @@
         <v>10118</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D674" s="13">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="E674" s="13">
         <v>0</v>
@@ -13859,10 +13911,10 @@
         <v>0</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D675" s="13">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="E675" s="13">
         <v>0</v>
@@ -13873,15 +13925,117 @@
         <v>10118</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C676" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D676" s="13">
+        <v>97</v>
+      </c>
+      <c r="E676" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D677" s="13">
+        <v>125</v>
+      </c>
+      <c r="E677" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D678" s="13">
+        <v>94</v>
+      </c>
+      <c r="E678" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C679" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D679" s="13">
+        <v>60</v>
+      </c>
+      <c r="E679" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D680" s="13">
+        <v>100</v>
+      </c>
+      <c r="E680" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C681" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D676" s="13">
+      <c r="D681" s="13">
         <v>64</v>
       </c>
-      <c r="E676" s="13">
+      <c r="E681" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" s="2">
+        <v>10118</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D682" s="13">
+        <v>30</v>
+      </c>
+      <c r="E682" s="13">
         <v>0</v>
       </c>
     </row>

--- a/جرد المواد.xlsx
+++ b/جرد المواد.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\InventorySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCC017-CF29-4A53-B048-EBFB863CE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73B942F-8048-4301-B906-073AB0E9348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9897150A-1D18-4DC5-83DE-EA3717EE1A52}"/>
+    <workbookView xWindow="1920" yWindow="1020" windowWidth="17280" windowHeight="8880" xr2:uid="{9897150A-1D18-4DC5-83DE-EA3717EE1A52}"/>
   </bookViews>
   <sheets>
     <sheet name="جرد المواد" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="622">
   <si>
     <t>3-ديوان</t>
   </si>
@@ -97,9 +97,6 @@
     <t>2-الوتوات</t>
   </si>
   <si>
-    <t>باردوش دوبل غروهي صيني</t>
-  </si>
-  <si>
     <t>باكس المنيوم 16 ملم</t>
   </si>
   <si>
@@ -1909,9 +1906,6 @@
     <t>كوع مدفع بلاستيك 4</t>
   </si>
   <si>
-    <t>بدعس</t>
-  </si>
-  <si>
     <t>صباب بانيو VIEGA</t>
   </si>
   <si>
@@ -1919,6 +1913,18 @@
   </si>
   <si>
     <t>سيليكون بدون اسيد</t>
+  </si>
+  <si>
+    <t>وصل بلاستيك 1/2</t>
+  </si>
+  <si>
+    <t>بار دوش دوبل غروهي صيني</t>
+  </si>
+  <si>
+    <t>خلاط</t>
+  </si>
+  <si>
+    <t>دوش</t>
   </si>
 </sst>
 </file>
@@ -2463,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E5C9A6-5EC3-4592-9122-0E1001CE6231}">
   <dimension ref="A1:E686"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="C677" sqref="C677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2479,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2487,19 +2493,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>609</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2507,10 +2513,10 @@
         <v>10102</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D4" s="14">
         <v>35000</v>
@@ -2524,10 +2530,10 @@
         <v>10102</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D5" s="14">
         <v>800</v>
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -2558,10 +2564,10 @@
         <v>803</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D7" s="15">
         <v>10</v>
@@ -2578,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15">
         <v>480</v>
@@ -2595,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -2609,10 +2615,10 @@
         <v>801</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D10" s="15">
         <v>-1</v>
@@ -2629,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="15">
         <v>60</v>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -2663,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="15">
         <v>20</v>
@@ -2680,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="14">
         <v>230</v>
@@ -2714,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="14">
         <v>72</v>
@@ -2728,10 +2734,10 @@
         <v>801</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D17" s="15">
         <v>6</v>
@@ -2745,10 +2751,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D18" s="15">
         <v>800</v>
@@ -2762,10 +2768,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D19" s="15">
         <v>-1</v>
@@ -2782,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="15">
         <v>189</v>
@@ -2796,10 +2802,10 @@
         <v>801</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D21" s="15">
         <v>6</v>
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="15">
         <v>410</v>
@@ -2847,10 +2853,10 @@
         <v>26</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D24" s="15">
         <v>-1</v>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
@@ -2884,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D26" s="15">
         <v>250</v>
@@ -2901,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
@@ -2918,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="15">
         <v>30</v>
@@ -2935,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15">
         <v>5</v>
@@ -2952,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="15">
         <v>3</v>
@@ -2969,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" s="15">
         <v>250</v>
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="15">
         <v>9</v>
@@ -3003,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D33" s="15">
         <v>50</v>
@@ -3017,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="D34" s="15">
         <v>8000</v>
@@ -3034,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="15">
         <v>-1</v>
@@ -3054,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="15">
         <v>45</v>
@@ -3068,10 +3074,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D37" s="15">
         <v>75</v>
@@ -3088,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="14">
         <v>4</v>
@@ -3105,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="15">
         <v>2300</v>
@@ -3119,10 +3125,10 @@
         <v>1702</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="15">
         <v>7</v>
@@ -3136,10 +3142,10 @@
         <v>10114</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D41" s="15">
         <v>120</v>
@@ -3153,10 +3159,10 @@
         <v>1802</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D42" s="15">
         <v>850</v>
@@ -3170,10 +3176,10 @@
         <v>1802</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D43" s="14">
         <v>-1</v>
@@ -3190,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44" s="15">
         <v>70</v>
@@ -3204,10 +3210,10 @@
         <v>25</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="15">
         <v>-100</v>
@@ -3224,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="14">
         <v>105</v>
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="15">
         <v>2</v>
@@ -3258,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -3272,10 +3278,10 @@
         <v>1601</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D49" s="15">
         <v>9</v>
@@ -3289,10 +3295,10 @@
         <v>10114</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D50" s="15">
         <v>20</v>
@@ -3306,10 +3312,10 @@
         <v>10121</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D51" s="15">
         <v>300</v>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D52" s="14">
         <v>280</v>
@@ -3343,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D53" s="15">
         <v>75</v>
@@ -3357,10 +3363,10 @@
         <v>2001</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54" s="15">
         <v>1650</v>
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="15">
         <v>25</v>
@@ -3391,10 +3397,10 @@
         <v>10124</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D56" s="15">
         <v>50</v>
@@ -3411,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="14">
         <v>1</v>
@@ -3428,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D58" s="15">
         <v>1</v>
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" s="15">
         <v>40</v>
@@ -3459,10 +3465,10 @@
         <v>1801</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D60" s="15">
         <v>-20</v>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D61" s="15">
         <v>3</v>
@@ -3510,10 +3516,10 @@
         <v>20106</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D63" s="14">
         <v>-10</v>
@@ -3527,10 +3533,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D64" s="15">
         <v>10000</v>
@@ -3544,10 +3550,10 @@
         <v>21</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D65" s="15">
         <v>-1</v>
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D66" s="15">
         <v>1200</v>
@@ -3578,10 +3584,10 @@
         <v>10112</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" s="15">
         <v>900</v>
@@ -3598,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="15">
         <v>300</v>
@@ -3612,10 +3618,10 @@
         <v>3509</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D69" s="15">
         <v>-1</v>
@@ -3632,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="14">
         <v>24</v>
@@ -3646,10 +3652,10 @@
         <v>19</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D71" s="15">
         <v>1400</v>
@@ -3663,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D72" s="15">
         <v>-1</v>
@@ -3683,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D73" s="14">
         <v>1</v>
@@ -3700,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="15">
         <v>36</v>
@@ -3717,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D75" s="15">
         <v>188</v>
@@ -3731,10 +3737,10 @@
         <v>10112</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="15">
         <v>60</v>
@@ -3748,10 +3754,10 @@
         <v>10120</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D77" s="15">
         <v>640</v>
@@ -3765,10 +3771,10 @@
         <v>10117</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D78" s="15">
         <v>415</v>
@@ -3785,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D79" s="14">
         <v>1</v>
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="15">
         <v>7</v>
@@ -3819,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D81" s="15">
         <v>50</v>
@@ -3833,10 +3839,10 @@
         <v>19</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D82" s="15">
         <v>800</v>
@@ -3850,10 +3856,10 @@
         <v>19</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D83" s="15">
         <v>-1</v>
@@ -3870,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="15">
         <v>7</v>
@@ -3887,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="15">
         <v>300</v>
@@ -3901,10 +3907,10 @@
         <v>10102</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D86" s="15">
         <v>540</v>
@@ -3921,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D87" s="14">
         <v>540</v>
@@ -3935,10 +3941,10 @@
         <v>10107</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D88" s="15">
         <v>300</v>
@@ -3952,10 +3958,10 @@
         <v>3501</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="D89" s="14">
         <v>-200</v>
@@ -3972,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D90" s="15">
         <v>15</v>
@@ -3989,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D91" s="14">
         <v>2</v>
@@ -4003,10 +4009,10 @@
         <v>10128</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D92" s="15">
         <v>1200</v>
@@ -4023,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D93" s="15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="16">
         <v>0</v>
@@ -4040,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D94" s="15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E94" s="16">
         <v>0</v>
@@ -4057,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D95" s="15">
         <v>1</v>
@@ -4074,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D96" s="15">
         <v>130</v>
@@ -4091,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D97" s="15">
         <v>24</v>
@@ -4108,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D98" s="15">
         <v>10</v>
@@ -4125,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" s="14">
         <v>27</v>
@@ -4142,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D100" s="15">
         <v>4</v>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="15">
         <v>12</v>
@@ -4176,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D102" s="15">
         <v>100</v>
@@ -4190,10 +4196,10 @@
         <v>10120</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D103" s="14">
         <v>600</v>
@@ -4210,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D104" s="15">
         <v>100</v>
@@ -4227,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D105" s="15">
         <v>250</v>
@@ -4241,10 +4247,10 @@
         <v>10116</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106" s="14">
         <v>1150</v>
@@ -4261,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D107" s="15">
         <v>6</v>
@@ -4278,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D108" s="15">
         <v>2</v>
@@ -4292,10 +4298,10 @@
         <v>10111</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D109" s="15">
         <v>168</v>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D110" s="15">
         <v>1</v>
@@ -4329,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D111" s="15">
         <v>8</v>
@@ -4343,10 +4349,10 @@
         <v>10130</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D112" s="15">
         <v>480</v>
@@ -4360,10 +4366,10 @@
         <v>10118</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D113" s="15">
         <v>100</v>
@@ -4380,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D114" s="15">
         <v>60</v>
@@ -4394,10 +4400,10 @@
         <v>803</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D115" s="15">
         <v>30</v>
@@ -4414,7 +4420,7 @@
         <v>11</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="15">
         <v>45</v>
@@ -4428,10 +4434,10 @@
         <v>1801</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D117" s="15">
         <v>1850</v>
@@ -4448,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D118" s="15">
         <v>810</v>
@@ -4462,10 +4468,10 @@
         <v>1801</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" s="15">
         <v>-1</v>
@@ -4479,10 +4485,10 @@
         <v>10131</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D120" s="15">
         <v>160</v>
@@ -4499,7 +4505,7 @@
         <v>11</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" s="15">
         <v>200</v>
@@ -4516,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D122" s="15">
         <v>31</v>
@@ -4530,10 +4536,10 @@
         <v>10115</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D123" s="14">
         <v>720</v>
@@ -4547,10 +4553,10 @@
         <v>10136</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D124" s="15">
         <v>1600</v>
@@ -4567,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D125" s="14">
         <v>32</v>
@@ -4581,10 +4587,10 @@
         <v>1702</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126" s="15">
         <v>8</v>
@@ -4601,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D127" s="15">
         <v>1</v>
@@ -4618,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D128" s="15">
         <v>3</v>
@@ -4632,10 +4638,10 @@
         <v>10124</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D129" s="15">
         <v>50</v>
@@ -4649,10 +4655,10 @@
         <v>10125</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D130" s="15">
         <v>160</v>
@@ -4666,10 +4672,10 @@
         <v>10103</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D131" s="15">
         <v>240</v>
@@ -4683,10 +4689,10 @@
         <v>10103</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D132" s="14">
         <v>600</v>
@@ -4703,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D133" s="15">
         <v>600</v>
@@ -4720,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D134" s="15">
         <v>196</v>
@@ -4734,10 +4740,10 @@
         <v>1702</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D135" s="15">
         <v>1</v>
@@ -4754,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D136" s="15">
         <v>1</v>
@@ -4771,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D137" s="15">
         <v>40</v>
@@ -4788,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D138" s="15">
         <v>1</v>
@@ -4802,10 +4808,10 @@
         <v>20112</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D139" s="14">
         <v>-3</v>
@@ -4822,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D140" s="15">
         <v>50</v>
@@ -4836,10 +4842,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D141" s="15">
         <v>-3</v>
@@ -4856,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D142" s="14">
         <v>1300</v>
@@ -4873,7 +4879,7 @@
         <v>11</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D143" s="15">
         <v>700</v>
@@ -4887,10 +4893,10 @@
         <v>10114</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D144" s="14">
         <v>700</v>
@@ -4904,10 +4910,10 @@
         <v>1701</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D145" s="15">
         <v>80</v>
@@ -4921,10 +4927,10 @@
         <v>1104</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D146" s="15">
         <v>-4</v>
@@ -4938,10 +4944,10 @@
         <v>10118</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D147" s="14">
         <v>125</v>
@@ -4958,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D148" s="15">
         <v>97</v>
@@ -4975,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D149" s="15">
         <v>78</v>
@@ -4989,10 +4995,10 @@
         <v>10116</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D150" s="15">
         <v>105</v>
@@ -5009,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D151" s="15">
         <v>100</v>
@@ -5026,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D152" s="14">
         <v>74</v>
@@ -5040,10 +5046,10 @@
         <v>10101</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D153" s="15">
         <v>20</v>
@@ -5060,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D154" s="14">
         <v>43</v>
@@ -5074,10 +5080,10 @@
         <v>10101</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D155" s="15">
         <v>-4</v>
@@ -5091,10 +5097,10 @@
         <v>803</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D156" s="15">
         <v>10</v>
@@ -5108,10 +5114,10 @@
         <v>10102</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D157" s="14">
         <v>1250</v>
@@ -5128,7 +5134,7 @@
         <v>11</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D158" s="15">
         <v>500</v>
@@ -5145,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D159" s="15">
         <v>2025</v>
@@ -5162,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="15">
         <v>30</v>
@@ -5179,7 +5185,7 @@
         <v>11</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D161" s="15">
         <v>250</v>
@@ -5213,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D163" s="15">
         <v>1</v>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D164" s="14">
         <v>35</v>
@@ -5244,10 +5250,10 @@
         <v>20103</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D165" s="15">
         <v>-15</v>
@@ -5264,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D166" s="14">
         <v>1</v>
@@ -5281,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D167" s="15">
         <v>68</v>
@@ -5298,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D168" s="15">
         <v>97</v>
@@ -5315,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D169" s="15">
         <v>1240</v>
@@ -5332,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D170" s="15">
         <v>300</v>
@@ -5363,10 +5369,10 @@
         <v>1702</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D172" s="15">
         <v>10</v>
@@ -5383,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D173" s="15">
         <v>400</v>
@@ -5400,7 +5406,7 @@
         <v>11</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D174" s="15">
         <v>9</v>
@@ -5414,10 +5420,10 @@
         <v>1702</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D175" s="14">
         <v>7</v>
@@ -5431,10 +5437,10 @@
         <v>1701</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D176" s="15">
         <v>20</v>
@@ -5451,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D177" s="14">
         <v>240</v>
@@ -5468,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D178" s="15">
         <v>40</v>
@@ -5485,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D179" s="15">
         <v>130</v>
@@ -5499,10 +5505,10 @@
         <v>20111</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D180" s="15">
         <v>-20</v>
@@ -5519,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D181" s="14">
         <v>46</v>
@@ -5536,7 +5542,7 @@
         <v>11</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D182" s="15">
         <v>780</v>
@@ -5550,10 +5556,10 @@
         <v>10124</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D183" s="14">
         <v>900</v>
@@ -5567,10 +5573,10 @@
         <v>10103</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D184" s="15">
         <v>144</v>
@@ -5587,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D185" s="15">
         <v>1</v>
@@ -5601,10 +5607,10 @@
         <v>10120</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D186" s="15">
         <v>72</v>
@@ -5621,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D187" s="15">
         <v>1</v>
@@ -5638,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D188" s="15">
         <v>15</v>
@@ -5655,7 +5661,7 @@
         <v>11</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D189" s="15">
         <v>390</v>
@@ -5672,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D190" s="15">
         <v>520</v>
@@ -5689,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D191" s="15">
         <v>108</v>
@@ -5703,10 +5709,10 @@
         <v>20102</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D192" s="15">
         <v>-30</v>
@@ -5723,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D193" s="15">
         <v>8</v>
@@ -5740,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D194" s="15">
         <v>100</v>
@@ -5754,10 +5760,10 @@
         <v>1701</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D195" s="14">
         <v>920</v>
@@ -5774,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D196" s="15">
         <v>1</v>
@@ -5791,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D197" s="15">
         <v>94</v>
@@ -5805,10 +5811,10 @@
         <v>20106</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D198" s="15">
         <v>1</v>
@@ -5822,10 +5828,10 @@
         <v>10120</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D199" s="15">
         <v>1500</v>
@@ -5839,10 +5845,10 @@
         <v>20401</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D200" s="15">
         <v>14</v>
@@ -5859,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D201" s="15">
         <v>300</v>
@@ -5873,10 +5879,10 @@
         <v>1104</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D202" s="15">
         <v>804</v>
@@ -5890,10 +5896,10 @@
         <v>1104</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D203" s="15">
         <v>-1</v>
@@ -5907,10 +5913,10 @@
         <v>10129</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D204" s="14">
         <v>75</v>
@@ -5924,10 +5930,10 @@
         <v>1702</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D205" s="15">
         <v>9</v>
@@ -5941,10 +5947,10 @@
         <v>1104</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D206" s="15">
         <v>516</v>
@@ -5958,10 +5964,10 @@
         <v>1104</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D207" s="15">
         <v>-1</v>
@@ -5978,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D208" s="15">
         <v>200</v>
@@ -5995,7 +6001,7 @@
         <v>11</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D209" s="15">
         <v>2</v>
@@ -6012,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D210" s="15">
         <v>100</v>
@@ -6029,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D211" s="15">
         <v>80</v>
@@ -6046,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D212" s="15">
         <v>16</v>
@@ -6060,10 +6066,10 @@
         <v>20108</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D213" s="15">
         <v>-22</v>
@@ -6080,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D214" s="14">
         <v>1350</v>
@@ -6097,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D215" s="15">
         <v>225</v>
@@ -6114,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D216" s="14">
         <v>7</v>
@@ -6131,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D217" s="15">
         <v>3000</v>
@@ -6148,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D218" s="15">
         <v>1</v>
@@ -6165,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D219" s="14">
         <v>1</v>
@@ -6182,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D220" s="15">
         <v>3</v>
@@ -6199,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D221" s="15">
         <v>20</v>
@@ -6216,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D222" s="15">
         <v>377</v>
@@ -6233,7 +6239,7 @@
         <v>11</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D223" s="15">
         <v>200</v>
@@ -6247,10 +6253,10 @@
         <v>3301</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D224" s="15">
         <v>-100</v>
@@ -6267,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D225" s="15">
         <v>17</v>
@@ -6281,10 +6287,10 @@
         <v>10121</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D226" s="14">
         <v>480</v>
@@ -6301,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D227" s="15">
         <v>90</v>
@@ -6315,10 +6321,10 @@
         <v>10111</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D228" s="15">
         <v>400</v>
@@ -6335,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D229" s="15">
         <v>320</v>
@@ -6349,10 +6355,10 @@
         <v>10104</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D230" s="15">
         <v>144</v>
@@ -6366,10 +6372,10 @@
         <v>1701</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D231" s="15">
         <v>40</v>
@@ -6386,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D232" s="15">
         <v>1</v>
@@ -6403,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D233" s="15">
         <v>3</v>
@@ -6420,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D234" s="15">
         <v>3</v>
@@ -6437,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D235" s="14">
         <v>4</v>
@@ -6454,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D236" s="15">
         <v>100</v>
@@ -6468,10 +6474,10 @@
         <v>1104</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D237" s="15">
         <v>516</v>
@@ -6485,10 +6491,10 @@
         <v>1104</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D238" s="15">
         <v>-1</v>
@@ -6502,10 +6508,10 @@
         <v>10132</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D239" s="15">
         <v>225</v>
@@ -6522,7 +6528,7 @@
         <v>11</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D240" s="15">
         <v>800</v>
@@ -6539,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D241" s="15">
         <v>75</v>
@@ -6556,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D242" s="15">
         <v>1</v>
@@ -6573,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D243" s="15">
         <v>28</v>
@@ -6590,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D244" s="15">
         <v>300</v>
@@ -6607,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D245" s="15">
         <v>180</v>
@@ -6621,10 +6627,10 @@
         <v>10122</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D246" s="14">
         <v>480</v>
@@ -6638,10 +6644,10 @@
         <v>1702</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D247" s="15">
         <v>4</v>
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D248" s="15">
         <v>25</v>
@@ -6675,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D249" s="15">
         <v>288</v>
@@ -6689,10 +6695,10 @@
         <v>1702</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D250" s="15">
         <v>1</v>
@@ -6709,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -6726,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D252" s="15">
         <v>12</v>
@@ -6743,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D253" s="14">
         <v>400</v>
@@ -6760,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D254" s="15">
         <v>10</v>
@@ -6774,10 +6780,10 @@
         <v>1702</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D255" s="15">
         <v>9</v>
@@ -6794,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D256" s="14">
         <v>2</v>
@@ -6808,10 +6814,10 @@
         <v>20111</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D257" s="15">
         <v>-30</v>
@@ -6828,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="15">
         <v>1</v>
@@ -6845,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D259" s="15">
         <v>1</v>
@@ -6859,10 +6865,10 @@
         <v>10118</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D260" s="15">
         <v>300</v>
@@ -6879,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D261" s="15">
         <v>225</v>
@@ -6893,10 +6899,10 @@
         <v>1802</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D262" s="15">
         <v>850</v>
@@ -6910,10 +6916,10 @@
         <v>1802</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D263" s="14">
         <v>-1</v>
@@ -6930,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D264" s="15">
         <v>100</v>
@@ -6947,7 +6953,7 @@
         <v>11</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D265" s="14">
         <v>150</v>
@@ -6961,10 +6967,10 @@
         <v>10117</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D266" s="15">
         <v>15</v>
@@ -6978,10 +6984,10 @@
         <v>1802</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D267" s="15">
         <v>-7</v>
@@ -6995,10 +7001,10 @@
         <v>10105</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D268" s="15">
         <v>150</v>
@@ -7015,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D269" s="15">
         <v>95</v>
@@ -7032,7 +7038,7 @@
         <v>11</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D270" s="14">
         <v>10</v>
@@ -7049,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D271" s="15">
         <v>1</v>
@@ -7066,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D272" s="15">
         <v>28</v>
@@ -7080,10 +7086,10 @@
         <v>10114</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D273" s="15">
         <v>880</v>
@@ -7100,7 +7106,7 @@
         <v>11</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D274" s="15">
         <v>72</v>
@@ -7114,10 +7120,10 @@
         <v>20404</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D275" s="15">
         <v>3</v>
@@ -7134,7 +7140,7 @@
         <v>11</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D276" s="15">
         <v>268</v>
@@ -7151,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D277" s="15">
         <v>600</v>
@@ -7168,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D278" s="14">
         <v>1</v>
@@ -7182,10 +7188,10 @@
         <v>20113</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D279" s="15">
         <v>-34</v>
@@ -7199,10 +7205,10 @@
         <v>10105</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D280" s="14">
         <v>600</v>
@@ -7219,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D281" s="15">
         <v>520</v>
@@ -7233,10 +7239,10 @@
         <v>10115</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D282" s="15">
         <v>215</v>
@@ -7250,10 +7256,10 @@
         <v>801</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D283" s="14">
         <v>-1</v>
@@ -7270,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D284" s="15">
         <v>400</v>
@@ -7287,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D285" s="15">
         <v>16</v>
@@ -7298,16 +7304,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
-        <v>802</v>
+        <v>34</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="D286" s="15">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="E286" s="16">
         <v>0</v>
@@ -7315,16 +7321,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
-        <v>34</v>
+        <v>1802</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>9</v>
+        <v>355</v>
       </c>
       <c r="D287" s="15">
-        <v>155</v>
+        <v>850</v>
       </c>
       <c r="E287" s="16">
         <v>0</v>
@@ -7335,13 +7341,13 @@
         <v>1802</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D288" s="15">
-        <v>850</v>
+        <v>-1</v>
       </c>
       <c r="E288" s="16">
         <v>0</v>
@@ -7349,16 +7355,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
-        <v>1802</v>
+        <v>3503</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>356</v>
+        <v>610</v>
       </c>
       <c r="D289" s="15">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="E289" s="16">
         <v>0</v>
@@ -7366,16 +7372,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
-        <v>3503</v>
+        <v>10132</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>611</v>
+        <v>72</v>
       </c>
       <c r="D290" s="14">
-        <v>-20</v>
+        <v>750</v>
       </c>
       <c r="E290" s="16">
         <v>0</v>
@@ -7386,13 +7392,13 @@
         <v>10132</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D291" s="15">
-        <v>750</v>
+        <v>1650</v>
       </c>
       <c r="E291" s="16">
         <v>0</v>
@@ -7403,13 +7409,13 @@
         <v>10132</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D292" s="15">
-        <v>1650</v>
+        <v>3475</v>
       </c>
       <c r="E292" s="16">
         <v>0</v>
@@ -7417,16 +7423,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
-        <v>10132</v>
+        <v>25</v>
       </c>
       <c r="B293" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="D293" s="14">
-        <v>3475</v>
+        <v>240</v>
       </c>
       <c r="E293" s="16">
         <v>0</v>
@@ -7434,16 +7440,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="D294" s="15">
-        <v>240</v>
+        <v>9</v>
       </c>
       <c r="E294" s="16">
         <v>0</v>
@@ -7451,16 +7457,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
-        <v>205</v>
+        <v>802</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="D295" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E295" s="16">
         <v>0</v>
@@ -7468,16 +7474,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
-        <v>802</v>
+        <v>19</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="D296" s="15">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="E296" s="16">
         <v>0</v>
@@ -7488,13 +7494,13 @@
         <v>19</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D297" s="15">
-        <v>1600</v>
+        <v>-1</v>
       </c>
       <c r="E297" s="16">
         <v>0</v>
@@ -7502,16 +7508,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
-        <v>19</v>
+        <v>10110</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>433</v>
+        <v>521</v>
       </c>
       <c r="D298" s="15">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="E298" s="16">
         <v>0</v>
@@ -7519,16 +7525,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
-        <v>10110</v>
+        <v>2002</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="D299" s="15">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E299" s="16">
         <v>0</v>
@@ -7536,16 +7542,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
-        <v>2002</v>
+        <v>1702</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>566</v>
+        <v>109</v>
       </c>
       <c r="D300" s="15">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E300" s="16">
         <v>0</v>
@@ -7553,16 +7559,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
-        <v>1702</v>
+        <v>10104</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
       <c r="D301" s="15">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -7573,13 +7579,13 @@
         <v>10104</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D302" s="15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E302" s="16">
         <v>0</v>
@@ -7587,16 +7593,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="11">
-        <v>10104</v>
+        <v>802</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>472</v>
+        <v>182</v>
       </c>
       <c r="D303" s="15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E303" s="16">
         <v>0</v>
@@ -7604,16 +7610,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="11">
-        <v>802</v>
+        <v>1104</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D304" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E304" s="16">
         <v>0</v>
@@ -7621,16 +7627,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="11">
-        <v>1104</v>
+        <v>28</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>126</v>
+        <v>586</v>
       </c>
       <c r="D305" s="15">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="E305" s="16">
         <v>0</v>
@@ -7638,16 +7644,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="11">
-        <v>28</v>
+        <v>1701</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>587</v>
+        <v>367</v>
       </c>
       <c r="D306" s="15">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="E306" s="16">
         <v>0</v>
@@ -7655,16 +7661,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="11">
-        <v>1701</v>
+        <v>10110</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="D307" s="15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E307" s="16">
         <v>0</v>
@@ -7672,16 +7678,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="11">
-        <v>10110</v>
+        <v>802</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="D308" s="15">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E308" s="16">
         <v>0</v>
@@ -7689,16 +7695,16 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="11">
-        <v>802</v>
+        <v>20407</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="D309" s="15">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E309" s="16">
         <v>0</v>
@@ -7709,13 +7715,13 @@
         <v>20407</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D310" s="15">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="E310" s="16">
         <v>0</v>
@@ -7723,16 +7729,16 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
-        <v>20407</v>
+        <v>10111</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="D311" s="14">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E311" s="16">
         <v>0</v>
@@ -7740,16 +7746,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="11">
-        <v>10111</v>
+        <v>10104</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>264</v>
+        <v>514</v>
       </c>
       <c r="D312" s="15">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -7757,16 +7763,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="11">
-        <v>10104</v>
+        <v>802</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>515</v>
+        <v>289</v>
       </c>
       <c r="D313" s="15">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -7774,16 +7780,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="11">
-        <v>802</v>
+        <v>25</v>
       </c>
       <c r="B314" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="D314" s="15">
-        <v>12</v>
+        <v>336</v>
       </c>
       <c r="E314" s="16">
         <v>0</v>
@@ -7791,16 +7797,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B315" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="D315" s="15">
-        <v>336</v>
+        <v>24</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -7808,16 +7814,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="11">
-        <v>29</v>
+        <v>803</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D316" s="15">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -7825,16 +7831,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="11">
-        <v>803</v>
+        <v>16</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D317" s="15">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E317" s="16">
         <v>0</v>
@@ -7842,16 +7848,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="11">
-        <v>16</v>
+        <v>1406</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>201</v>
+        <v>423</v>
       </c>
       <c r="D318" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E318" s="16">
         <v>0</v>
@@ -7859,16 +7865,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="11">
-        <v>1406</v>
+        <v>20403</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="D319" s="15">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E319" s="16">
         <v>0</v>
@@ -7879,13 +7885,13 @@
         <v>20403</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D320" s="15">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E320" s="16">
         <v>0</v>
@@ -7893,13 +7899,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="11">
-        <v>20403</v>
+        <v>1003</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="D321" s="15">
         <v>1</v>
@@ -7910,16 +7916,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="11">
-        <v>1003</v>
+        <v>206</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>241</v>
+        <v>585</v>
       </c>
       <c r="D322" s="15">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="E322" s="16">
         <v>0</v>
@@ -7927,16 +7933,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="11">
-        <v>206</v>
+        <v>30109</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>586</v>
+        <v>171</v>
       </c>
       <c r="D323" s="15">
-        <v>456</v>
+        <v>215</v>
       </c>
       <c r="E323" s="16">
         <v>0</v>
@@ -7944,16 +7950,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="11">
-        <v>30109</v>
+        <v>23</v>
       </c>
       <c r="B324" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D324" s="15">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="E324" s="16">
         <v>0</v>
@@ -7961,16 +7967,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B325" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
       <c r="D325" s="15">
-        <v>177</v>
+        <v>2500</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -7978,16 +7984,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B326" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>474</v>
+        <v>233</v>
       </c>
       <c r="D326" s="15">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
@@ -7995,16 +8001,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="11">
-        <v>26</v>
+        <v>10115</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D327" s="15">
-        <v>250</v>
+        <v>1075</v>
       </c>
       <c r="E327" s="16">
         <v>0</v>
@@ -8012,16 +8018,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="11">
-        <v>10115</v>
+        <v>1403</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="D328" s="15">
-        <v>1075</v>
+        <v>1</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
@@ -8029,16 +8035,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="11">
-        <v>1403</v>
+        <v>803</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
       <c r="D329" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E329" s="16">
         <v>0</v>
@@ -8046,16 +8052,16 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="11">
-        <v>803</v>
+        <v>10128</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>219</v>
+        <v>469</v>
       </c>
       <c r="D330" s="15">
-        <v>10</v>
+        <v>825</v>
       </c>
       <c r="E330" s="16">
         <v>0</v>
@@ -8063,16 +8069,16 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="11">
-        <v>10128</v>
+        <v>601</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="D331" s="15">
-        <v>825</v>
+        <v>10</v>
       </c>
       <c r="E331" s="16">
         <v>0</v>
@@ -8080,16 +8086,16 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="11">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="B332" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="D332" s="15">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="E332" s="16">
         <v>0</v>
@@ -8097,16 +8103,16 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="11">
-        <v>23</v>
+        <v>1702</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="D333" s="15">
-        <v>349</v>
+        <v>4</v>
       </c>
       <c r="E333" s="16">
         <v>0</v>
@@ -8114,16 +8120,16 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="11">
-        <v>1702</v>
+        <v>1802</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>100</v>
+        <v>357</v>
       </c>
       <c r="D334" s="15">
-        <v>4</v>
+        <v>1750</v>
       </c>
       <c r="E334" s="16">
         <v>0</v>
@@ -8134,13 +8140,13 @@
         <v>1802</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D335" s="15">
-        <v>1750</v>
+        <v>-1</v>
       </c>
       <c r="E335" s="16">
         <v>0</v>
@@ -8148,16 +8154,16 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
-        <v>1802</v>
+        <v>1108</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="D336" s="14">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -8165,16 +8171,16 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="11">
-        <v>1108</v>
+        <v>10111</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>136</v>
+        <v>522</v>
       </c>
       <c r="D337" s="15">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="E337" s="16">
         <v>0</v>
@@ -8182,16 +8188,16 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="11">
-        <v>10111</v>
+        <v>10101</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>523</v>
+        <v>257</v>
       </c>
       <c r="D338" s="15">
-        <v>450</v>
+        <v>135</v>
       </c>
       <c r="E338" s="16">
         <v>0</v>
@@ -8202,13 +8208,13 @@
         <v>10101</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D339" s="15">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="E339" s="16">
         <v>0</v>
@@ -8216,16 +8222,16 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="11">
-        <v>10101</v>
+        <v>802</v>
       </c>
       <c r="B340" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="D340" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E340" s="16">
         <v>0</v>
@@ -8239,10 +8245,10 @@
         <v>0</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="D341" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E341" s="16">
         <v>0</v>
@@ -8250,16 +8256,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="11">
-        <v>802</v>
+        <v>601</v>
       </c>
       <c r="B342" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="D342" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E342" s="16">
         <v>0</v>
@@ -8267,16 +8273,16 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="11">
-        <v>601</v>
+        <v>20113</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>29</v>
+        <v>594</v>
       </c>
       <c r="D343" s="15">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="E343" s="16">
         <v>0</v>
@@ -8284,16 +8290,16 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
-        <v>20113</v>
+        <v>10115</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>595</v>
+        <v>252</v>
       </c>
       <c r="D344" s="14">
-        <v>-10</v>
+        <v>980</v>
       </c>
       <c r="E344" s="16">
         <v>0</v>
@@ -8304,13 +8310,13 @@
         <v>10115</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D345" s="15">
-        <v>980</v>
+        <v>125</v>
       </c>
       <c r="E345" s="16">
         <v>0</v>
@@ -8321,13 +8327,13 @@
         <v>10115</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D346" s="15">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="E346" s="16">
         <v>0</v>
@@ -8335,16 +8341,16 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="11">
-        <v>10115</v>
+        <v>1802</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="D347" s="15">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="E347" s="16">
         <v>0</v>
@@ -8352,16 +8358,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="11">
-        <v>1802</v>
+        <v>1104</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="D348" s="15">
-        <v>47</v>
+        <v>2500</v>
       </c>
       <c r="E348" s="16">
         <v>0</v>
@@ -8372,13 +8378,13 @@
         <v>1104</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D349" s="15">
-        <v>2500</v>
+        <v>-1</v>
       </c>
       <c r="E349" s="16">
         <v>0</v>
@@ -8386,16 +8392,16 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="11">
-        <v>1104</v>
+        <v>34</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D350" s="15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E350" s="16">
         <v>0</v>
@@ -8403,16 +8409,16 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="11">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>7</v>
+        <v>601</v>
       </c>
       <c r="D351" s="15">
-        <v>30</v>
+        <v>21600</v>
       </c>
       <c r="E351" s="16">
         <v>0</v>
@@ -8423,13 +8429,13 @@
         <v>22</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D352" s="14">
-        <v>21600</v>
+        <v>-1</v>
       </c>
       <c r="E352" s="16">
         <v>0</v>
@@ -8437,16 +8443,16 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="11">
-        <v>22</v>
+        <v>10118</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>602</v>
+        <v>488</v>
       </c>
       <c r="D353" s="15">
-        <v>-1</v>
+        <v>500</v>
       </c>
       <c r="E353" s="16">
         <v>0</v>
@@ -8454,16 +8460,16 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="11">
-        <v>10118</v>
+        <v>25</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="D354" s="15">
-        <v>500</v>
+        <v>1120</v>
       </c>
       <c r="E354" s="16">
         <v>0</v>
@@ -8471,16 +8477,16 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B355" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="D355" s="15">
-        <v>1120</v>
+        <v>14</v>
       </c>
       <c r="E355" s="16">
         <v>0</v>
@@ -8488,16 +8494,16 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="11">
-        <v>13</v>
+        <v>10103</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>133</v>
+        <v>335</v>
       </c>
       <c r="D356" s="15">
-        <v>14</v>
+        <v>450</v>
       </c>
       <c r="E356" s="16">
         <v>0</v>
@@ -8508,13 +8514,13 @@
         <v>10103</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D357" s="15">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E357" s="16">
         <v>0</v>
@@ -8522,16 +8528,16 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="11">
-        <v>10103</v>
+        <v>1702</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="D358" s="15">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="E358" s="16">
         <v>0</v>
@@ -8539,16 +8545,16 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="11">
-        <v>1702</v>
+        <v>10121</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>113</v>
+        <v>534</v>
       </c>
       <c r="D359" s="15">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="E359" s="16">
         <v>0</v>
@@ -8556,16 +8562,16 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="11">
-        <v>10121</v>
+        <v>20404</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="D360" s="15">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="E360" s="16">
         <v>0</v>
@@ -8573,16 +8579,16 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="11">
-        <v>20404</v>
+        <v>30112</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>468</v>
+        <v>75</v>
       </c>
       <c r="D361" s="15">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E361" s="16">
         <v>0</v>
@@ -8590,16 +8596,16 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="11">
-        <v>30112</v>
+        <v>10107</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="D362" s="15">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E362" s="16">
         <v>0</v>
@@ -8607,16 +8613,16 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="10">
-        <v>10107</v>
+        <v>26</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="D363" s="14">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="E363" s="16">
         <v>0</v>
@@ -8624,16 +8630,16 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="11">
-        <v>26</v>
+        <v>3508</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>229</v>
+        <v>557</v>
       </c>
       <c r="D364" s="15">
-        <v>360</v>
+        <v>-20</v>
       </c>
       <c r="E364" s="16">
         <v>0</v>
@@ -8641,16 +8647,16 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="11">
-        <v>3508</v>
+        <v>1107</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>558</v>
+        <v>92</v>
       </c>
       <c r="D365" s="15">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="E365" s="16">
         <v>0</v>
@@ -8658,13 +8664,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="10">
-        <v>1107</v>
+        <v>19</v>
       </c>
       <c r="B366" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>93</v>
+        <v>433</v>
       </c>
       <c r="D366" s="14">
         <v>100</v>
@@ -8675,16 +8681,16 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="11">
-        <v>19</v>
+        <v>20405</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="D367" s="15">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E367" s="16">
         <v>0</v>
@@ -8692,16 +8698,16 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
-        <v>20405</v>
+        <v>1702</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>483</v>
+        <v>107</v>
       </c>
       <c r="D368" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E368" s="16">
         <v>0</v>
@@ -8709,16 +8715,16 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="11">
-        <v>1702</v>
+        <v>20402</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="D369" s="15">
-        <v>7</v>
+        <v>1200</v>
       </c>
       <c r="E369" s="16">
         <v>0</v>
@@ -8729,13 +8735,13 @@
         <v>20402</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D370" s="14">
-        <v>1200</v>
+        <v>134</v>
       </c>
       <c r="E370" s="16">
         <v>0</v>
@@ -8743,16 +8749,16 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="11">
-        <v>20402</v>
+        <v>1104</v>
       </c>
       <c r="B371" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>324</v>
+        <v>131</v>
       </c>
       <c r="D371" s="15">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="E371" s="16">
         <v>0</v>
@@ -8760,16 +8766,16 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="11">
-        <v>1104</v>
+        <v>10126</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="D372" s="15">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="E372" s="16">
         <v>0</v>
@@ -8777,16 +8783,16 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
-        <v>10126</v>
+        <v>27</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="D373" s="14">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="E373" s="16">
         <v>0</v>
@@ -8794,16 +8800,16 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="11">
-        <v>27</v>
+        <v>10130</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="D374" s="15">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="E374" s="16">
         <v>0</v>
@@ -8811,16 +8817,16 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="11">
-        <v>10130</v>
+        <v>10109</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="D375" s="15">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E375" s="16">
         <v>0</v>
@@ -8831,10 +8837,10 @@
         <v>10109</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D376" s="15">
         <v>100</v>
@@ -8845,16 +8851,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="10">
-        <v>10109</v>
+        <v>2001</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="D377" s="14">
-        <v>100</v>
+        <v>1550</v>
       </c>
       <c r="E377" s="16">
         <v>0</v>
@@ -8862,16 +8868,16 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="11">
-        <v>2001</v>
+        <v>10109</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="D378" s="15">
-        <v>1550</v>
+        <v>200</v>
       </c>
       <c r="E378" s="16">
         <v>0</v>
@@ -8882,13 +8888,13 @@
         <v>10109</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D379" s="15">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E379" s="16">
         <v>0</v>
@@ -8896,16 +8902,16 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="11">
-        <v>10109</v>
+        <v>10107</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>267</v>
+        <v>516</v>
       </c>
       <c r="D380" s="15">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="E380" s="16">
         <v>0</v>
@@ -8913,16 +8919,16 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="10">
-        <v>10107</v>
+        <v>27</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="D381" s="14">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="E381" s="16">
         <v>0</v>
@@ -8930,16 +8936,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="11">
-        <v>27</v>
+        <v>10132</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>33</v>
+        <v>544</v>
       </c>
       <c r="D382" s="15">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E382" s="16">
         <v>0</v>
@@ -8947,16 +8953,16 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="10">
-        <v>10132</v>
+        <v>802</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>545</v>
+        <v>205</v>
       </c>
       <c r="D383" s="14">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E383" s="16">
         <v>0</v>
@@ -8964,16 +8970,16 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="11">
-        <v>802</v>
+        <v>20402</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="D384" s="15">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E384" s="16">
         <v>0</v>
@@ -8981,16 +8987,16 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
-        <v>20402</v>
+        <v>7</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="D385" s="14">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="E385" s="16">
         <v>0</v>
@@ -8998,16 +9004,16 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="11">
-        <v>7</v>
+        <v>1604</v>
       </c>
       <c r="B386" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D386" s="15">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E386" s="16">
         <v>0</v>
@@ -9015,16 +9021,16 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="10">
-        <v>1604</v>
+        <v>20402</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="D387" s="14">
-        <v>2</v>
+        <v>316</v>
       </c>
       <c r="E387" s="16">
         <v>0</v>
@@ -9035,13 +9041,13 @@
         <v>20402</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D388" s="15">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="E388" s="16">
         <v>0</v>
@@ -9052,13 +9058,13 @@
         <v>20402</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D389" s="15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E389" s="16">
         <v>0</v>
@@ -9066,16 +9072,16 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="10">
-        <v>20402</v>
+        <v>12</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="D390" s="14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E390" s="16">
         <v>0</v>
@@ -9083,16 +9089,16 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="11">
-        <v>12</v>
+        <v>20404</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>51</v>
+        <v>465</v>
       </c>
       <c r="D391" s="15">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E391" s="16">
         <v>0</v>
@@ -9103,13 +9109,13 @@
         <v>20404</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D392" s="14">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E392" s="16">
         <v>0</v>
@@ -9117,16 +9123,16 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="11">
-        <v>20404</v>
+        <v>1702</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>466</v>
+        <v>547</v>
       </c>
       <c r="D393" s="15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E393" s="16">
         <v>0</v>
@@ -9134,16 +9140,16 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
-        <v>1702</v>
+        <v>802</v>
       </c>
       <c r="B394" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="D394" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E394" s="16">
         <v>0</v>
@@ -9151,16 +9157,16 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="11">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B395" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="D395" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E395" s="16">
         <v>0</v>
@@ -9168,16 +9174,16 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="10">
-        <v>801</v>
+        <v>20108</v>
       </c>
       <c r="B396" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D396" s="14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E396" s="16">
         <v>0</v>
@@ -9185,16 +9191,16 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="11">
-        <v>20108</v>
+        <v>1701</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>63</v>
+        <v>372</v>
       </c>
       <c r="D397" s="15">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E397" s="16">
         <v>0</v>
@@ -9202,16 +9208,16 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="11">
-        <v>1701</v>
+        <v>1402</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="D398" s="15">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E398" s="16">
         <v>0</v>
@@ -9219,16 +9225,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="11">
-        <v>1402</v>
+        <v>3502</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>416</v>
+        <v>556</v>
       </c>
       <c r="D399" s="15">
-        <v>1</v>
+        <v>-190</v>
       </c>
       <c r="E399" s="16">
         <v>0</v>
@@ -9236,16 +9242,16 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="11">
-        <v>3502</v>
+        <v>10107</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>557</v>
+        <v>310</v>
       </c>
       <c r="D400" s="15">
-        <v>-190</v>
+        <v>200</v>
       </c>
       <c r="E400" s="16">
         <v>0</v>
@@ -9253,16 +9259,16 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="10">
-        <v>10107</v>
+        <v>20112</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>311</v>
+        <v>569</v>
       </c>
       <c r="D401" s="14">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E401" s="16">
         <v>0</v>
@@ -9270,16 +9276,16 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="11">
-        <v>20112</v>
+        <v>20403</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>553</v>
+        <v>11</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>570</v>
+        <v>329</v>
       </c>
       <c r="D402" s="15">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="E402" s="16">
         <v>0</v>
@@ -9287,16 +9293,16 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="11">
-        <v>20403</v>
+        <v>25</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="D403" s="15">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E403" s="16">
         <v>0</v>
@@ -9304,16 +9310,16 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="11">
-        <v>25</v>
+        <v>802</v>
       </c>
       <c r="B404" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
       <c r="D404" s="15">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="E404" s="16">
         <v>0</v>
@@ -9321,16 +9327,16 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="11">
-        <v>802</v>
+        <v>7</v>
       </c>
       <c r="B405" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D405" s="15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E405" s="16">
         <v>0</v>
@@ -9338,16 +9344,16 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="11">
-        <v>7</v>
+        <v>1801</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>404</v>
+        <v>616</v>
       </c>
       <c r="D406" s="15">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="E406" s="16">
         <v>0</v>
@@ -9355,16 +9361,16 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="11">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>618</v>
+        <v>375</v>
       </c>
       <c r="D407" s="15">
-        <v>-15</v>
+        <v>35</v>
       </c>
       <c r="E407" s="16">
         <v>0</v>
@@ -9372,16 +9378,16 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="11">
-        <v>1701</v>
+        <v>10104</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="D408" s="15">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="E408" s="16">
         <v>0</v>
@@ -9392,10 +9398,10 @@
         <v>10104</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C409" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D409" s="15">
         <v>900</v>
@@ -9409,13 +9415,13 @@
         <v>10104</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D410" s="15">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E410" s="16">
         <v>0</v>
@@ -9423,16 +9429,16 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
-        <v>10104</v>
+        <v>802</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>471</v>
+        <v>176</v>
       </c>
       <c r="D411" s="14">
-        <v>800</v>
+        <v>8</v>
       </c>
       <c r="E411" s="16">
         <v>0</v>
@@ -9440,16 +9446,16 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="11">
-        <v>802</v>
+        <v>10116</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="D412" s="15">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="E412" s="16">
         <v>0</v>
@@ -9457,16 +9463,16 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="11">
-        <v>10116</v>
+        <v>1105</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="D413" s="15">
-        <v>350</v>
+        <v>24</v>
       </c>
       <c r="E413" s="16">
         <v>0</v>
@@ -9474,16 +9480,16 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="11">
-        <v>1105</v>
+        <v>602</v>
       </c>
       <c r="B414" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D414" s="15">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E414" s="16">
         <v>0</v>
@@ -9491,16 +9497,16 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="11">
-        <v>602</v>
+        <v>1003</v>
       </c>
       <c r="B415" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D415" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E415" s="16">
         <v>0</v>
@@ -9508,13 +9514,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="10">
-        <v>1003</v>
+        <v>7</v>
       </c>
       <c r="B416" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>240</v>
+        <v>505</v>
       </c>
       <c r="D416" s="14">
         <v>1</v>
@@ -9525,16 +9531,16 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="11">
+        <v>1702</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D417" s="15">
         <v>7</v>
-      </c>
-      <c r="B417" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C417" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D417" s="15">
-        <v>1</v>
       </c>
       <c r="E417" s="16">
         <v>0</v>
@@ -9542,16 +9548,16 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="11">
-        <v>1702</v>
+        <v>10110</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>118</v>
+        <v>519</v>
       </c>
       <c r="D418" s="15">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="E418" s="16">
         <v>0</v>
@@ -9559,16 +9565,16 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="11">
-        <v>10110</v>
+        <v>20410</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="D419" s="15">
-        <v>200</v>
+        <v>-10</v>
       </c>
       <c r="E419" s="16">
         <v>0</v>
@@ -9576,16 +9582,16 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="11">
-        <v>20410</v>
+        <v>1702</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>594</v>
+        <v>105</v>
       </c>
       <c r="D420" s="15">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="E420" s="16">
         <v>0</v>
@@ -9593,16 +9599,16 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="10">
-        <v>1702</v>
+        <v>30101</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="D421" s="14">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E421" s="16">
         <v>0</v>
@@ -9610,16 +9616,16 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="11">
-        <v>30101</v>
+        <v>10132</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="D422" s="15">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E422" s="16">
         <v>0</v>
@@ -9627,16 +9633,16 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="11">
-        <v>10132</v>
+        <v>601</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>544</v>
+        <v>29</v>
       </c>
       <c r="D423" s="15">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E423" s="16">
         <v>0</v>
@@ -9644,13 +9650,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="11">
-        <v>601</v>
+        <v>1601</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="D424" s="15">
         <v>8</v>
@@ -9661,16 +9667,16 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="11">
-        <v>1601</v>
+        <v>20401</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D425" s="15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E425" s="16">
         <v>0</v>
@@ -9678,16 +9684,16 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="11">
-        <v>20401</v>
+        <v>13</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>249</v>
+        <v>619</v>
       </c>
       <c r="D426" s="15">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E426" s="16">
         <v>0</v>
@@ -9695,16 +9701,16 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="10">
-        <v>13</v>
+        <v>1603</v>
       </c>
       <c r="B427" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="D427" s="14">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E427" s="16">
         <v>0</v>
@@ -9712,16 +9718,16 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="11">
-        <v>1603</v>
+        <v>15</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="D428" s="15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E428" s="16">
         <v>0</v>
@@ -9729,16 +9735,16 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="11">
-        <v>15</v>
+        <v>10124</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>341</v>
+        <v>541</v>
       </c>
       <c r="D429" s="15">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="E429" s="16">
         <v>0</v>
@@ -9746,16 +9752,16 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="11">
-        <v>10124</v>
+        <v>36</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>542</v>
+        <v>261</v>
       </c>
       <c r="D430" s="15">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E430" s="16">
         <v>0</v>
@@ -9763,16 +9769,16 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="11">
-        <v>36</v>
+        <v>1701</v>
       </c>
       <c r="B431" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="D431" s="15">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E431" s="16">
         <v>0</v>
@@ -9780,16 +9786,16 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="11">
-        <v>1701</v>
+        <v>1602</v>
       </c>
       <c r="B432" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>378</v>
+        <v>597</v>
       </c>
       <c r="D432" s="15">
-        <v>35</v>
+        <v>-2</v>
       </c>
       <c r="E432" s="16">
         <v>0</v>
@@ -9797,16 +9803,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="11">
-        <v>1602</v>
+        <v>802</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>598</v>
+        <v>292</v>
       </c>
       <c r="D433" s="15">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="E433" s="16">
         <v>0</v>
@@ -9814,16 +9820,16 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="11">
-        <v>802</v>
+        <v>22</v>
       </c>
       <c r="B434" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>293</v>
+        <v>5</v>
       </c>
       <c r="D434" s="15">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="E434" s="16">
         <v>0</v>
@@ -9831,16 +9837,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="10">
-        <v>22</v>
+        <v>20104</v>
       </c>
       <c r="B435" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>5</v>
+        <v>462</v>
       </c>
       <c r="D435" s="14">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="E435" s="16">
         <v>0</v>
@@ -9848,16 +9854,16 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="11">
-        <v>20104</v>
+        <v>32</v>
       </c>
       <c r="B436" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>463</v>
+        <v>18</v>
       </c>
       <c r="D436" s="15">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E436" s="16">
         <v>0</v>
@@ -9865,16 +9871,16 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="11">
-        <v>32</v>
+        <v>10118</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>19</v>
+        <v>489</v>
       </c>
       <c r="D437" s="15">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E437" s="16">
         <v>0</v>
@@ -9885,13 +9891,13 @@
         <v>10118</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D438" s="15">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="E438" s="16">
         <v>0</v>
@@ -9899,16 +9905,16 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="11">
-        <v>10118</v>
+        <v>1701</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>490</v>
+        <v>374</v>
       </c>
       <c r="D439" s="15">
-        <v>950</v>
+        <v>45</v>
       </c>
       <c r="E439" s="16">
         <v>0</v>
@@ -9916,16 +9922,16 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="11">
-        <v>1701</v>
+        <v>1406</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="D440" s="15">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E440" s="16">
         <v>0</v>
@@ -9933,16 +9939,16 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="11">
-        <v>1406</v>
+        <v>1603</v>
       </c>
       <c r="B441" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>403</v>
+        <v>142</v>
       </c>
       <c r="D441" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E441" s="16">
         <v>0</v>
@@ -9950,13 +9956,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="10">
-        <v>1603</v>
+        <v>1402</v>
       </c>
       <c r="B442" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="D442" s="14">
         <v>2</v>
@@ -9967,16 +9973,16 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="11">
-        <v>1402</v>
+        <v>10135</v>
       </c>
       <c r="B443" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="D443" s="15">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E443" s="16">
         <v>0</v>
@@ -9984,16 +9990,16 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="11">
-        <v>10135</v>
+        <v>20401</v>
       </c>
       <c r="B444" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="D444" s="15">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E444" s="16">
         <v>0</v>
@@ -10001,16 +10007,16 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="10">
-        <v>20401</v>
+        <v>1406</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="D445" s="14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E445" s="16">
         <v>0</v>
@@ -10018,16 +10024,16 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="11">
-        <v>1406</v>
+        <v>10103</v>
       </c>
       <c r="B446" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>427</v>
+        <v>513</v>
       </c>
       <c r="D446" s="15">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E446" s="16">
         <v>0</v>
@@ -10035,16 +10041,16 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="11">
-        <v>10103</v>
+        <v>1403</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>514</v>
+        <v>418</v>
       </c>
       <c r="D447" s="15">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E447" s="16">
         <v>0</v>
@@ -10052,16 +10058,16 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="11">
-        <v>1403</v>
+        <v>10112</v>
       </c>
       <c r="B448" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>419</v>
+        <v>149</v>
       </c>
       <c r="D448" s="15">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E448" s="16">
         <v>0</v>
@@ -10072,13 +10078,13 @@
         <v>10112</v>
       </c>
       <c r="B449" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D449" s="15">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E449" s="16">
         <v>0</v>
@@ -10086,16 +10092,16 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
-        <v>10112</v>
+        <v>1801</v>
       </c>
       <c r="B450" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="D450" s="14">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E450" s="16">
         <v>0</v>
@@ -10103,16 +10109,16 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="11">
-        <v>1801</v>
+        <v>802</v>
       </c>
       <c r="B451" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>381</v>
+        <v>208</v>
       </c>
       <c r="D451" s="15">
-        <v>600</v>
+        <v>7</v>
       </c>
       <c r="E451" s="16">
         <v>0</v>
@@ -10120,16 +10126,16 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="11">
-        <v>802</v>
+        <v>20404</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>209</v>
+        <v>466</v>
       </c>
       <c r="D452" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E452" s="16">
         <v>0</v>
@@ -10137,16 +10143,16 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="11">
-        <v>20404</v>
+        <v>22</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D453" s="15">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E453" s="16">
         <v>0</v>
@@ -10154,16 +10160,16 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="10">
-        <v>22</v>
+        <v>20104</v>
       </c>
       <c r="B454" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="D454" s="14">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="E454" s="16">
         <v>0</v>
@@ -10171,16 +10177,16 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="11">
-        <v>20104</v>
+        <v>10114</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="D455" s="15">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E455" s="16">
         <v>0</v>
@@ -10188,16 +10194,16 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="11">
-        <v>10114</v>
+        <v>802</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>528</v>
+        <v>385</v>
       </c>
       <c r="D456" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E456" s="16">
         <v>0</v>
@@ -10205,16 +10211,16 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="11">
-        <v>802</v>
+        <v>10110</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="D457" s="15">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E457" s="16">
         <v>0</v>
@@ -10222,16 +10228,16 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="11">
-        <v>10110</v>
+        <v>10102</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="D458" s="15">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="E458" s="16">
         <v>0</v>
@@ -10239,16 +10245,16 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="10">
-        <v>10102</v>
+        <v>30117</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>327</v>
+        <v>476</v>
       </c>
       <c r="D459" s="14">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="E459" s="16">
         <v>0</v>
@@ -10256,16 +10262,16 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="11">
-        <v>30117</v>
+        <v>802</v>
       </c>
       <c r="B460" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>477</v>
+        <v>392</v>
       </c>
       <c r="D460" s="15">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="E460" s="16">
         <v>0</v>
@@ -10273,16 +10279,16 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="11">
-        <v>802</v>
+        <v>1104</v>
       </c>
       <c r="B461" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="D461" s="15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E461" s="16">
         <v>0</v>
@@ -10290,16 +10296,16 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="11">
-        <v>1104</v>
+        <v>1702</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D462" s="15">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E462" s="16">
         <v>0</v>
@@ -10307,16 +10313,16 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="11">
-        <v>1702</v>
+        <v>25</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="D463" s="15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E463" s="16">
         <v>0</v>
@@ -10324,16 +10330,16 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="11">
-        <v>25</v>
+        <v>20106</v>
       </c>
       <c r="B464" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>163</v>
+        <v>444</v>
       </c>
       <c r="D464" s="15">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E464" s="16">
         <v>0</v>
@@ -10341,16 +10347,16 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="11">
-        <v>20106</v>
+        <v>1403</v>
       </c>
       <c r="B465" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>445</v>
+        <v>15</v>
       </c>
       <c r="D465" s="15">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E465" s="16">
         <v>0</v>
@@ -10358,16 +10364,16 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="10">
-        <v>1403</v>
+        <v>10120</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>16</v>
+        <v>457</v>
       </c>
       <c r="D466" s="14">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="E466" s="16">
         <v>0</v>
@@ -10375,16 +10381,16 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="11">
-        <v>10120</v>
+        <v>1701</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="D467" s="15">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="E467" s="16">
         <v>0</v>
@@ -10392,16 +10398,16 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="11">
-        <v>1701</v>
+        <v>20407</v>
       </c>
       <c r="B468" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>372</v>
+        <v>65</v>
       </c>
       <c r="D468" s="15">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E468" s="16">
         <v>0</v>
@@ -10409,16 +10415,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="11">
-        <v>20407</v>
+        <v>10101</v>
       </c>
       <c r="B469" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>66</v>
+        <v>506</v>
       </c>
       <c r="D469" s="15">
-        <v>38</v>
+        <v>3960</v>
       </c>
       <c r="E469" s="16">
         <v>0</v>
@@ -10426,16 +10432,16 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="10">
-        <v>10101</v>
+        <v>1408</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C470" s="10" t="s">
-        <v>507</v>
+        <v>424</v>
       </c>
       <c r="D470" s="14">
-        <v>3960</v>
+        <v>1</v>
       </c>
       <c r="E470" s="16">
         <v>0</v>
@@ -10443,16 +10449,16 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="11">
-        <v>1408</v>
+        <v>19</v>
       </c>
       <c r="B471" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C471" s="11" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D471" s="15">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E471" s="16">
         <v>0</v>
@@ -10463,13 +10469,13 @@
         <v>19</v>
       </c>
       <c r="B472" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D472" s="15">
-        <v>2000</v>
+        <v>-1</v>
       </c>
       <c r="E472" s="16">
         <v>0</v>
@@ -10477,16 +10483,16 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="11">
-        <v>19</v>
+        <v>10107</v>
       </c>
       <c r="B473" s="11" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>439</v>
+        <v>308</v>
       </c>
       <c r="D473" s="15">
-        <v>-1</v>
+        <v>600</v>
       </c>
       <c r="E473" s="16">
         <v>0</v>
@@ -10497,13 +10503,13 @@
         <v>10107</v>
       </c>
       <c r="B474" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D474" s="15">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="E474" s="16">
         <v>0</v>
@@ -10511,16 +10517,16 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="11">
-        <v>10107</v>
+        <v>1801</v>
       </c>
       <c r="B475" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="D475" s="15">
-        <v>1600</v>
+        <v>41</v>
       </c>
       <c r="E475" s="16">
         <v>0</v>
@@ -10528,16 +10534,16 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="10">
-        <v>1801</v>
+        <v>10111</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>352</v>
+        <v>524</v>
       </c>
       <c r="D476" s="14">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E476" s="16">
         <v>0</v>
@@ -10545,16 +10551,16 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="11">
-        <v>10111</v>
+        <v>10118</v>
       </c>
       <c r="B477" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="D477" s="15">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="E477" s="16">
         <v>0</v>
@@ -10562,16 +10568,16 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="11">
-        <v>10118</v>
+        <v>802</v>
       </c>
       <c r="B478" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="D478" s="15">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E478" s="16">
         <v>0</v>
@@ -10579,16 +10585,16 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="11">
-        <v>802</v>
+        <v>1104</v>
       </c>
       <c r="B479" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="D479" s="15">
-        <v>1</v>
+        <v>468</v>
       </c>
       <c r="E479" s="16">
         <v>0</v>
@@ -10599,13 +10605,13 @@
         <v>1104</v>
       </c>
       <c r="B480" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D480" s="15">
-        <v>468</v>
+        <v>-1</v>
       </c>
       <c r="E480" s="16">
         <v>0</v>
@@ -10613,16 +10619,16 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="11">
-        <v>1104</v>
+        <v>1702</v>
       </c>
       <c r="B481" s="11" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D481" s="15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E481" s="16">
         <v>0</v>
@@ -10630,16 +10636,16 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="11">
-        <v>1702</v>
+        <v>15</v>
       </c>
       <c r="B482" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C482" s="11" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="D482" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E482" s="16">
         <v>0</v>
@@ -10647,16 +10653,16 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B483" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C483" s="11" t="s">
-        <v>343</v>
+        <v>587</v>
       </c>
       <c r="D483" s="15">
-        <v>4</v>
+        <v>11000</v>
       </c>
       <c r="E483" s="16">
         <v>0</v>
@@ -10667,13 +10673,13 @@
         <v>21</v>
       </c>
       <c r="B484" s="11" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C484" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D484" s="15">
-        <v>11000</v>
+        <v>-20</v>
       </c>
       <c r="E484" s="16">
         <v>0</v>
@@ -10684,13 +10690,13 @@
         <v>21</v>
       </c>
       <c r="B485" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C485" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D485" s="15">
-        <v>-20</v>
+        <v>-41</v>
       </c>
       <c r="E485" s="16">
         <v>0</v>
@@ -10698,16 +10704,16 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B486" s="11" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>588</v>
+        <v>51</v>
       </c>
       <c r="D486" s="15">
-        <v>-41</v>
+        <v>54</v>
       </c>
       <c r="E486" s="16">
         <v>0</v>
@@ -10715,16 +10721,16 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B487" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C487" s="11" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="D487" s="15">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E487" s="16">
         <v>0</v>
@@ -10732,16 +10738,16 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="11">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B488" s="11" t="s">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="C488" s="11" t="s">
-        <v>167</v>
+        <v>551</v>
       </c>
       <c r="D488" s="15">
-        <v>29</v>
+        <v>-3</v>
       </c>
       <c r="E488" s="16">
         <v>0</v>
@@ -10749,16 +10755,16 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="11">
-        <v>13</v>
+        <v>1408</v>
       </c>
       <c r="B489" s="11" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="C489" s="11" t="s">
-        <v>552</v>
+        <v>425</v>
       </c>
       <c r="D489" s="15">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E489" s="16">
         <v>0</v>
@@ -10766,13 +10772,13 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="11">
-        <v>1408</v>
+        <v>801</v>
       </c>
       <c r="B490" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C490" s="11" t="s">
-        <v>426</v>
+        <v>295</v>
       </c>
       <c r="D490" s="15">
         <v>1</v>
@@ -10783,16 +10789,16 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="11">
-        <v>801</v>
+        <v>20405</v>
       </c>
       <c r="B491" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C491" s="11" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="D491" s="15">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="E491" s="16">
         <v>0</v>
@@ -10800,16 +10806,16 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="11">
-        <v>20405</v>
+        <v>10105</v>
       </c>
       <c r="B492" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C492" s="11" t="s">
-        <v>447</v>
+        <v>196</v>
       </c>
       <c r="D492" s="15">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E492" s="16">
         <v>0</v>
@@ -10817,16 +10823,16 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="10">
-        <v>10105</v>
+        <v>20402</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="D493" s="14">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E493" s="16">
         <v>0</v>
@@ -10834,16 +10840,16 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="11">
-        <v>20402</v>
+        <v>15</v>
       </c>
       <c r="B494" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C494" s="11" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D494" s="15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E494" s="16">
         <v>0</v>
@@ -10851,16 +10857,16 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="11">
-        <v>15</v>
+        <v>1106</v>
       </c>
       <c r="B495" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C495" s="11" t="s">
-        <v>342</v>
+        <v>191</v>
       </c>
       <c r="D495" s="15">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="E495" s="16">
         <v>0</v>
@@ -10868,16 +10874,16 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="11">
-        <v>1106</v>
+        <v>10111</v>
       </c>
       <c r="B496" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C496" s="11" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="D496" s="15">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="E496" s="16">
         <v>0</v>
@@ -10885,16 +10891,16 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="11">
-        <v>10111</v>
+        <v>10132</v>
       </c>
       <c r="B497" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C497" s="11" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="D497" s="15">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E497" s="16">
         <v>0</v>
@@ -10902,16 +10908,16 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="11">
-        <v>10132</v>
+        <v>32</v>
       </c>
       <c r="B498" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C498" s="11" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D498" s="15">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E498" s="16">
         <v>0</v>
@@ -10919,16 +10925,16 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="11">
-        <v>32</v>
+        <v>20112</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C499" s="11" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="D499" s="15">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E499" s="16">
         <v>0</v>
@@ -10936,16 +10942,16 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="11">
-        <v>20112</v>
+        <v>803</v>
       </c>
       <c r="B500" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C500" s="11" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="D500" s="15">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E500" s="16">
         <v>0</v>
@@ -10956,13 +10962,13 @@
         <v>803</v>
       </c>
       <c r="B501" s="11" t="s">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="C501" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D501" s="15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E501" s="16">
         <v>0</v>
@@ -10970,16 +10976,16 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="11">
-        <v>803</v>
+        <v>604</v>
       </c>
       <c r="B502" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C502" s="11" t="s">
-        <v>226</v>
+        <v>574</v>
       </c>
       <c r="D502" s="15">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="E502" s="16">
         <v>0</v>
@@ -10987,16 +10993,16 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="11">
-        <v>604</v>
+        <v>20106</v>
       </c>
       <c r="B503" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C503" s="11" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="D503" s="15">
-        <v>-1</v>
+        <v>170</v>
       </c>
       <c r="E503" s="16">
         <v>0</v>
@@ -11004,16 +11010,16 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="11">
-        <v>20106</v>
+        <v>1402</v>
       </c>
       <c r="B504" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C504" s="11" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="D504" s="15">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="E504" s="16">
         <v>0</v>
@@ -11021,13 +11027,13 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="11">
-        <v>1402</v>
+        <v>602</v>
       </c>
       <c r="B505" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C505" s="11" t="s">
-        <v>417</v>
+        <v>25</v>
       </c>
       <c r="D505" s="15">
         <v>2</v>
@@ -11038,13 +11044,13 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="11">
-        <v>602</v>
+        <v>802</v>
       </c>
       <c r="B506" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C506" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D506" s="15">
         <v>2</v>
@@ -11055,16 +11061,16 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="11">
-        <v>802</v>
+        <v>10118</v>
       </c>
       <c r="B507" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C507" s="11" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="D507" s="15">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="E507" s="16">
         <v>0</v>
@@ -11075,13 +11081,13 @@
         <v>10118</v>
       </c>
       <c r="B508" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C508" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D508" s="15">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E508" s="16">
         <v>0</v>
@@ -11089,16 +11095,16 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="11">
-        <v>10118</v>
+        <v>10101</v>
       </c>
       <c r="B509" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C509" s="11" t="s">
-        <v>496</v>
+        <v>255</v>
       </c>
       <c r="D509" s="15">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="E509" s="16">
         <v>0</v>
@@ -11106,16 +11112,16 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="11">
-        <v>10101</v>
+        <v>10126</v>
       </c>
       <c r="B510" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C510" s="11" t="s">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="D510" s="15">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E510" s="16">
         <v>0</v>
@@ -11126,10 +11132,10 @@
         <v>10126</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D511" s="14">
         <v>300</v>
@@ -11140,16 +11146,16 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="11">
-        <v>10126</v>
+        <v>803</v>
       </c>
       <c r="B512" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C512" s="11" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="D512" s="15">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="E512" s="16">
         <v>0</v>
@@ -11157,16 +11163,16 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="11">
-        <v>803</v>
+        <v>10105</v>
       </c>
       <c r="B513" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C513" s="11" t="s">
-        <v>225</v>
+        <v>515</v>
       </c>
       <c r="D513" s="15">
-        <v>7</v>
+        <v>720</v>
       </c>
       <c r="E513" s="16">
         <v>0</v>
@@ -11174,16 +11180,16 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="11">
-        <v>10105</v>
+        <v>19</v>
       </c>
       <c r="B514" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C514" s="11" t="s">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="D514" s="15">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="E514" s="16">
         <v>0</v>
@@ -11191,16 +11197,16 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="10">
-        <v>19</v>
+        <v>802</v>
       </c>
       <c r="B515" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>430</v>
+        <v>286</v>
       </c>
       <c r="D515" s="14">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="E515" s="16">
         <v>0</v>
@@ -11208,16 +11214,16 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="11">
-        <v>802</v>
+        <v>10124</v>
       </c>
       <c r="B516" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C516" s="11" t="s">
-        <v>287</v>
+        <v>537</v>
       </c>
       <c r="D516" s="15">
-        <v>29</v>
+        <v>2700</v>
       </c>
       <c r="E516" s="16">
         <v>0</v>
@@ -11225,16 +11231,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="10">
-        <v>10124</v>
+        <v>20102</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="D517" s="14">
-        <v>2700</v>
+        <v>-150</v>
       </c>
       <c r="E517" s="16">
         <v>0</v>
@@ -11242,16 +11248,16 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="11">
-        <v>20102</v>
+        <v>10118</v>
       </c>
       <c r="B518" s="11" t="s">
-        <v>553</v>
+        <v>53</v>
       </c>
       <c r="C518" s="11" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="D518" s="15">
-        <v>-150</v>
+        <v>1200</v>
       </c>
       <c r="E518" s="16">
         <v>0</v>
@@ -11259,16 +11265,16 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="11">
-        <v>10118</v>
+        <v>10136</v>
       </c>
       <c r="B519" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C519" s="11" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="D519" s="15">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E519" s="16">
         <v>0</v>
@@ -11276,16 +11282,16 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="10">
-        <v>10136</v>
+        <v>1702</v>
       </c>
       <c r="B520" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C520" s="10" t="s">
-        <v>547</v>
+        <v>118</v>
       </c>
       <c r="D520" s="14">
-        <v>2000</v>
+        <v>9</v>
       </c>
       <c r="E520" s="16">
         <v>0</v>
@@ -11293,16 +11299,16 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="11">
-        <v>1702</v>
+        <v>803</v>
       </c>
       <c r="B521" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C521" s="11" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="D521" s="15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E521" s="16">
         <v>0</v>
@@ -11313,13 +11319,13 @@
         <v>803</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="C522" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D522" s="14">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E522" s="16">
         <v>0</v>
@@ -11330,13 +11336,13 @@
         <v>803</v>
       </c>
       <c r="B523" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C523" s="11" t="s">
-        <v>224</v>
+        <v>578</v>
       </c>
       <c r="D523" s="15">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="E523" s="16">
         <v>0</v>
@@ -11344,16 +11350,16 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="11">
-        <v>803</v>
+        <v>1701</v>
       </c>
       <c r="B524" s="11" t="s">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="C524" s="11" t="s">
-        <v>579</v>
+        <v>366</v>
       </c>
       <c r="D524" s="15">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E524" s="16">
         <v>0</v>
@@ -11361,16 +11367,16 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="11">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B525" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C525" s="11" t="s">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="D525" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E525" s="16">
         <v>0</v>
@@ -11378,16 +11384,16 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="10">
-        <v>1702</v>
+        <v>1106</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C526" s="10" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="D526" s="14">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="E526" s="16">
         <v>0</v>
@@ -11395,16 +11401,16 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="11">
-        <v>1106</v>
+        <v>28</v>
       </c>
       <c r="B527" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C527" s="11" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="D527" s="15">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="E527" s="16">
         <v>0</v>
@@ -11412,16 +11418,16 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="11">
-        <v>28</v>
+        <v>30106</v>
       </c>
       <c r="B528" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C528" s="11" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D528" s="15">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E528" s="16">
         <v>0</v>
@@ -11429,16 +11435,16 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="11">
-        <v>30106</v>
+        <v>802</v>
       </c>
       <c r="B529" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C529" s="11" t="s">
-        <v>270</v>
+        <v>388</v>
       </c>
       <c r="D529" s="15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E529" s="16">
         <v>0</v>
@@ -11446,16 +11452,16 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="10">
-        <v>802</v>
+        <v>30109</v>
       </c>
       <c r="B530" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C530" s="10" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="D530" s="14">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="E530" s="16">
         <v>0</v>
@@ -11463,16 +11469,16 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="11">
-        <v>30109</v>
+        <v>1104</v>
       </c>
       <c r="B531" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C531" s="11" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="D531" s="15">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="E531" s="16">
         <v>0</v>
@@ -11480,16 +11486,16 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="11">
-        <v>1104</v>
+        <v>10120</v>
       </c>
       <c r="B532" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C532" s="11" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="D532" s="15">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="E532" s="16">
         <v>0</v>
@@ -11497,16 +11503,16 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="11">
-        <v>10120</v>
+        <v>20402</v>
       </c>
       <c r="B533" s="11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C533" s="11" t="s">
-        <v>533</v>
+        <v>336</v>
       </c>
       <c r="D533" s="15">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="E533" s="16">
         <v>0</v>
@@ -11514,16 +11520,16 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="10">
-        <v>20402</v>
+        <v>1402</v>
       </c>
       <c r="B534" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C534" s="10" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="D534" s="14">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="E534" s="16">
         <v>0</v>
@@ -11531,16 +11537,16 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="11">
-        <v>1402</v>
+        <v>10101</v>
       </c>
       <c r="B535" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C535" s="11" t="s">
-        <v>415</v>
+        <v>250</v>
       </c>
       <c r="D535" s="15">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="E535" s="16">
         <v>0</v>
@@ -11548,16 +11554,16 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="10">
-        <v>10101</v>
+        <v>30101</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C536" s="10" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="D536" s="14">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E536" s="16">
         <v>0</v>
@@ -11565,16 +11571,16 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="11">
-        <v>30101</v>
+        <v>801</v>
       </c>
       <c r="B537" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C537" s="11" t="s">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="D537" s="15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E537" s="16">
         <v>0</v>
@@ -11582,16 +11588,16 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="11">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="B538" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C538" s="11" t="s">
-        <v>444</v>
+        <v>127</v>
       </c>
       <c r="D538" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E538" s="16">
         <v>0</v>
@@ -11599,16 +11605,16 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="11">
-        <v>13</v>
+        <v>802</v>
       </c>
       <c r="B539" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C539" s="11" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D539" s="15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E539" s="16">
         <v>0</v>
@@ -11616,16 +11622,16 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="11">
-        <v>802</v>
+        <v>20203</v>
       </c>
       <c r="B540" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C540" s="11" t="s">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="D540" s="15">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E540" s="16">
         <v>0</v>
@@ -11633,16 +11639,16 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="11">
-        <v>20203</v>
+        <v>26</v>
       </c>
       <c r="B541" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C541" s="11" t="s">
-        <v>504</v>
+        <v>216</v>
       </c>
       <c r="D541" s="15">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="E541" s="16">
         <v>0</v>
@@ -11650,16 +11656,16 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="11">
-        <v>26</v>
+        <v>1105</v>
       </c>
       <c r="B542" s="11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C542" s="11" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="D542" s="15">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="E542" s="16">
         <v>0</v>
@@ -11673,10 +11679,10 @@
         <v>0</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D543" s="14">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="E543" s="16">
         <v>0</v>
@@ -11684,16 +11690,16 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="11">
-        <v>1105</v>
+        <v>10102</v>
       </c>
       <c r="B544" s="11" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C544" s="11" t="s">
-        <v>96</v>
+        <v>509</v>
       </c>
       <c r="D544" s="15">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E544" s="16">
         <v>0</v>
@@ -11701,16 +11707,16 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="10">
-        <v>10102</v>
+        <v>19</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="D545" s="14">
-        <v>120</v>
+        <v>1800</v>
       </c>
       <c r="E545" s="16">
         <v>0</v>
@@ -11721,13 +11727,13 @@
         <v>19</v>
       </c>
       <c r="B546" s="11" t="s">
-        <v>54</v>
+        <v>550</v>
       </c>
       <c r="C546" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D546" s="15">
-        <v>1800</v>
+        <v>-1</v>
       </c>
       <c r="E546" s="16">
         <v>0</v>
@@ -11735,16 +11741,16 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="11">
-        <v>19</v>
+        <v>20401</v>
       </c>
       <c r="B547" s="11" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="C547" s="11" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="D547" s="15">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="E547" s="16">
         <v>0</v>
@@ -11752,16 +11758,16 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="11">
-        <v>20401</v>
+        <v>7</v>
       </c>
       <c r="B548" s="11" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C548" s="11" t="s">
-        <v>248</v>
+        <v>428</v>
       </c>
       <c r="D548" s="15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E548" s="16">
         <v>0</v>
@@ -11769,16 +11775,16 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="11">
-        <v>7</v>
+        <v>603</v>
       </c>
       <c r="B549" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C549" s="11" t="s">
-        <v>429</v>
+        <v>282</v>
       </c>
       <c r="D549" s="15">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="E549" s="16">
         <v>0</v>
@@ -11786,16 +11792,16 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="11">
-        <v>603</v>
+        <v>20104</v>
       </c>
       <c r="B550" s="11" t="s">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="C550" s="11" t="s">
-        <v>283</v>
+        <v>618</v>
       </c>
       <c r="D550" s="15">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E550" s="16">
         <v>0</v>
@@ -11806,10 +11812,10 @@
         <v>1702</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D551" s="14">
         <v>4</v>
@@ -11826,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="C552" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D552" s="15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E552" s="16">
         <v>0</v>
@@ -11840,10 +11846,10 @@
         <v>10127</v>
       </c>
       <c r="B553" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C553" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D553" s="15">
         <v>600</v>
@@ -11860,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="C554" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D554" s="14">
         <v>400</v>
@@ -11877,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="C555" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D555" s="15">
         <v>1</v>
@@ -11894,7 +11900,7 @@
         <v>0</v>
       </c>
       <c r="C556" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D556" s="15">
         <v>15</v>
@@ -11911,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="C557" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D557" s="15">
         <v>100</v>
@@ -11925,10 +11931,10 @@
         <v>10129</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C558" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D558" s="14">
         <v>120</v>
@@ -11945,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="C559" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D559" s="15">
         <v>69</v>
@@ -11962,7 +11968,7 @@
         <v>11</v>
       </c>
       <c r="C560" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D560" s="15">
         <v>15</v>
@@ -11979,7 +11985,7 @@
         <v>0</v>
       </c>
       <c r="C561" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D561" s="15">
         <v>2</v>
@@ -11993,10 +11999,10 @@
         <v>7</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C562" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D562" s="14">
         <v>-20</v>
@@ -12013,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="C563" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D563" s="15">
         <v>12</v>
@@ -12030,7 +12036,7 @@
         <v>11</v>
       </c>
       <c r="C564" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D564" s="15">
         <v>24</v>
@@ -12044,10 +12050,10 @@
         <v>10120</v>
       </c>
       <c r="B565" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C565" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D565" s="15">
         <v>144</v>
@@ -12064,7 +12070,7 @@
         <v>11</v>
       </c>
       <c r="C566" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D566" s="14">
         <v>100</v>
@@ -12081,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="C567" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D567" s="15">
         <v>312</v>
@@ -12095,10 +12101,10 @@
         <v>10129</v>
       </c>
       <c r="B568" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C568" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D568" s="15">
         <v>240</v>
@@ -12115,7 +12121,7 @@
         <v>11</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D569" s="14">
         <v>1</v>
@@ -12132,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="C570" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D570" s="15">
         <v>4</v>
@@ -12146,10 +12152,10 @@
         <v>10124</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D571" s="14">
         <v>2700</v>
@@ -12166,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="C572" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D572" s="15">
         <v>1</v>
@@ -12183,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="C573" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D573" s="15">
         <v>11</v>
@@ -12197,10 +12203,10 @@
         <v>803</v>
       </c>
       <c r="B574" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C574" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D574" s="15">
         <v>10</v>
@@ -12217,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="C575" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D575" s="15">
         <v>1</v>
@@ -12231,10 +12237,10 @@
         <v>801</v>
       </c>
       <c r="B576" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C576" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D576" s="15">
         <v>-1</v>
@@ -12248,10 +12254,10 @@
         <v>10121</v>
       </c>
       <c r="B577" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C577" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D577" s="15">
         <v>24</v>
@@ -12268,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="C578" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D578" s="14">
         <v>3</v>
@@ -12285,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="C579" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D579" s="15">
         <v>50</v>
@@ -12302,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="C580" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D580" s="15">
         <v>42</v>
@@ -12316,10 +12322,10 @@
         <v>10124</v>
       </c>
       <c r="B581" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C581" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D581" s="15">
         <v>1200</v>
@@ -12333,10 +12339,10 @@
         <v>1701</v>
       </c>
       <c r="B582" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C582" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D582" s="15">
         <v>15</v>
@@ -12353,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="C583" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D583" s="15">
         <v>48</v>
@@ -12367,10 +12373,10 @@
         <v>1802</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C584" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D584" s="14">
         <v>850</v>
@@ -12384,10 +12390,10 @@
         <v>1802</v>
       </c>
       <c r="B585" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C585" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D585" s="15">
         <v>-1</v>
@@ -12401,10 +12407,10 @@
         <v>10132</v>
       </c>
       <c r="B586" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C586" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D586" s="15">
         <v>480</v>
@@ -12421,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D587" s="14">
         <v>350</v>
@@ -12438,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="C588" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D588" s="15">
         <v>1</v>
@@ -12452,10 +12458,10 @@
         <v>1702</v>
       </c>
       <c r="B589" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C589" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D589" s="15">
         <v>3</v>
@@ -12469,10 +12475,10 @@
         <v>10110</v>
       </c>
       <c r="B590" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C590" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D590" s="15">
         <v>200</v>
@@ -12486,10 +12492,10 @@
         <v>1104</v>
       </c>
       <c r="B591" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C591" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D591" s="15">
         <v>-3</v>
@@ -12506,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="C592" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D592" s="15">
         <v>24</v>
@@ -12523,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D593" s="15">
         <v>2</v>
@@ -12540,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="C594" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D594" s="15">
         <v>213</v>
@@ -12557,7 +12563,7 @@
         <v>11</v>
       </c>
       <c r="C595" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D595" s="15">
         <v>50</v>
@@ -12574,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="C596" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D596" s="15">
         <v>8</v>
@@ -12591,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="C597" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D597" s="15">
         <v>41</v>
@@ -12605,10 +12611,10 @@
         <v>1602</v>
       </c>
       <c r="B598" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C598" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D598" s="15">
         <v>-1</v>
@@ -12625,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="C599" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D599" s="15">
         <v>12</v>
@@ -12639,10 +12645,10 @@
         <v>1702</v>
       </c>
       <c r="B600" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C600" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D600" s="15">
         <v>4</v>
@@ -12659,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="C601" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D601" s="15">
         <v>1</v>
@@ -12673,10 +12679,10 @@
         <v>10124</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D602" s="14">
         <v>1800</v>
@@ -12693,7 +12699,7 @@
         <v>11</v>
       </c>
       <c r="C603" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D603" s="15">
         <v>3200</v>
@@ -12710,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D604" s="15">
         <v>120</v>
@@ -12724,10 +12730,10 @@
         <v>10115</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C605" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D605" s="15">
         <v>480</v>
@@ -12744,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D606" s="15">
         <v>2</v>
@@ -12758,10 +12764,10 @@
         <v>19</v>
       </c>
       <c r="B607" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C607" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D607" s="15">
         <v>1600</v>
@@ -12775,10 +12781,10 @@
         <v>19</v>
       </c>
       <c r="B608" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D608" s="15">
         <v>-1</v>
@@ -12795,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="C609" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D609" s="15">
         <v>2850</v>
@@ -12812,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="C610" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D610" s="15">
         <v>2</v>
@@ -12829,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="C611" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D611" s="15">
         <v>1</v>
@@ -12843,10 +12849,10 @@
         <v>10107</v>
       </c>
       <c r="B612" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C612" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D612" s="15">
         <v>480</v>
@@ -12863,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="C613" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D613" s="15">
         <v>6</v>
@@ -12877,10 +12883,10 @@
         <v>10112</v>
       </c>
       <c r="B614" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C614" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D614" s="15">
         <v>800</v>
@@ -12897,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="C615" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D615" s="15">
         <v>1000</v>
@@ -12931,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="C617" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D617" s="15">
         <v>80</v>
@@ -12948,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="C618" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D618" s="15">
         <v>1</v>
@@ -12965,7 +12971,7 @@
         <v>11</v>
       </c>
       <c r="C619" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D619" s="15">
         <v>8</v>
@@ -12982,7 +12988,7 @@
         <v>11</v>
       </c>
       <c r="C620" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D620" s="15">
         <v>4</v>
@@ -12999,7 +13005,7 @@
         <v>11</v>
       </c>
       <c r="C621" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D621" s="15">
         <v>1</v>
@@ -13016,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="C622" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D622" s="15">
         <v>4</v>
@@ -13030,10 +13036,10 @@
         <v>10126</v>
       </c>
       <c r="B623" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C623" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D623" s="15">
         <v>150</v>
@@ -13047,10 +13053,10 @@
         <v>1702</v>
       </c>
       <c r="B624" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C624" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D624" s="15">
         <v>4</v>
@@ -13067,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="C625" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D625" s="15">
         <v>3</v>
@@ -13084,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="C626" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D626" s="15">
         <v>15</v>
@@ -13101,7 +13107,7 @@
         <v>11</v>
       </c>
       <c r="C627" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D627" s="15">
         <v>1</v>
@@ -13118,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="C628" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D628" s="15">
         <v>1</v>
@@ -13135,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="C629" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D629" s="15">
         <v>2</v>
@@ -13149,10 +13155,10 @@
         <v>10109</v>
       </c>
       <c r="B630" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C630" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D630" s="15">
         <v>60</v>
@@ -13169,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="C631" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D631" s="15">
         <v>60</v>
@@ -13186,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="C632" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D632" s="15">
         <v>10</v>
@@ -13203,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="C633" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D633" s="15">
         <v>9</v>
@@ -13217,10 +13223,10 @@
         <v>10103</v>
       </c>
       <c r="B634" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C634" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D634" s="15">
         <v>1200</v>
@@ -13237,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D635" s="15">
         <v>320</v>
@@ -13251,10 +13257,10 @@
         <v>10121</v>
       </c>
       <c r="B636" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C636" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D636" s="15">
         <v>600</v>
@@ -13271,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D637" s="13">
         <v>1</v>
@@ -13285,10 +13291,10 @@
         <v>10110</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D638" s="13">
         <v>228</v>
@@ -13305,7 +13311,7 @@
         <v>11</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D639" s="13">
         <v>1035</v>
@@ -13322,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D640" s="13">
         <v>1</v>
@@ -13339,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D641" s="13">
         <v>3</v>
@@ -13356,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D642" s="13">
         <v>2250</v>
@@ -13370,10 +13376,10 @@
         <v>10112</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D643" s="13">
         <v>200</v>
@@ -13387,10 +13393,10 @@
         <v>1701</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D644" s="13">
         <v>75</v>
@@ -13404,10 +13410,10 @@
         <v>20111</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D645" s="13">
         <v>-10</v>
@@ -13424,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D646" s="13">
         <v>1</v>
@@ -13441,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D647" s="13">
         <v>600</v>
@@ -13458,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D648" s="13">
         <v>4</v>
@@ -13475,7 +13481,7 @@
         <v>11</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D649" s="13">
         <v>225</v>
@@ -13489,10 +13495,10 @@
         <v>23</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D650" s="13">
         <v>500</v>
@@ -13509,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D651" s="13">
         <v>29</v>
@@ -13523,10 +13529,10 @@
         <v>1104</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D652" s="13">
         <v>-3</v>
@@ -13543,7 +13549,7 @@
         <v>11</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D653" s="13">
         <v>7</v>
@@ -13557,10 +13563,10 @@
         <v>10102</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D654" s="13">
         <v>1600</v>
@@ -13577,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D655" s="13">
         <v>500</v>
@@ -13591,10 +13597,10 @@
         <v>20113</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D656" s="13">
         <v>-4</v>
@@ -13608,10 +13614,10 @@
         <v>10110</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D657" s="13">
         <v>150</v>
@@ -13625,10 +13631,10 @@
         <v>1802</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D658" s="13">
         <v>-10</v>
@@ -13642,10 +13648,10 @@
         <v>7</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D659" s="13">
         <v>-1</v>
@@ -13659,10 +13665,10 @@
         <v>1702</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D660" s="13">
         <v>18</v>
@@ -13676,10 +13682,10 @@
         <v>10115</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D661" s="13">
         <v>310</v>
@@ -13693,10 +13699,10 @@
         <v>3501</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D662" s="13">
         <v>200</v>
@@ -13713,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D663" s="13">
         <v>25</v>
@@ -13727,10 +13733,10 @@
         <v>10111</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D664" s="13">
         <v>150</v>
@@ -13747,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D665" s="13">
         <v>4</v>
@@ -13764,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D666" s="13">
         <v>3</v>
@@ -13781,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D667" s="13">
         <v>24</v>
@@ -13798,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D668" s="13">
         <v>3</v>
@@ -13815,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D669" s="13">
         <v>1</v>
@@ -13832,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D670" s="13">
         <v>2</v>
@@ -13846,10 +13852,10 @@
         <v>10115</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D671" s="13">
         <v>60</v>
@@ -13866,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D672" s="13">
         <v>30</v>
@@ -13883,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D673" s="13">
         <v>1</v>
@@ -13897,10 +13903,10 @@
         <v>2002</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D674" s="13">
         <v>50</v>
@@ -13917,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D675" s="13">
         <v>30</v>
@@ -13931,10 +13937,10 @@
         <v>1802</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D676" s="13">
         <v>850</v>
@@ -13948,10 +13954,10 @@
         <v>1802</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D677" s="13">
         <v>-1</v>
@@ -13968,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D678" s="13">
         <v>71</v>
@@ -13982,10 +13988,10 @@
         <v>10101</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C679" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D679" s="13">
         <v>75</v>
@@ -14002,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D680" s="13">
         <v>4</v>
@@ -14019,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D681" s="13">
         <v>11</v>
@@ -14036,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D682" s="13">
         <v>1</v>
@@ -14050,10 +14056,10 @@
         <v>20304</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D683" s="13">
         <v>1</v>
@@ -14070,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D684" s="13">
         <v>1</v>
@@ -14087,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D685" s="13">
         <v>1</v>
@@ -14104,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D686" s="13">
         <v>1</v>
@@ -14123,8 +14129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61027CE7-7F93-4E05-AD75-4F80558B30F3}">
   <dimension ref="A1:D550"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -14137,60 +14143,62 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2" s="7"/>
+        <v>498</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>501</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="str" cm="1">
-        <f t="array" ref="A6:D7">_xlfn._xlws.SORT(_xlfn._xlws.FILTER('جرد المواد'!B5:E9883,
+        <f t="array" ref="A6:D11">_xlfn._xlws.SORT(_xlfn._xlws.FILTER('جرد المواد'!B5:E9883,
 ISNUMBER(SEARCH(IF(B1="","*",B1),'جرد المواد'!C5:C9883))*
 ISNUMBER(SEARCH(IF(B2="","*",B2),'جرد المواد'!C5:C9883))*
 ISNUMBER(SEARCH(IF(B3="","*",B3),'جرد المواد'!C5:C9883))*
 ISNUMBER(SEARCH(IF(B4="","*",B4),'جرد المواد'!B5:B9883)),
 "لا توجد نتائج"),
 2,1)</f>
-        <v>3-ديوان</v>
+        <v>1-الناعمة</v>
       </c>
       <c r="B6" s="1" t="str">
-        <v>كرسي بدعسة ابيض هندي</v>
+        <v>خلاط دوش برم توليدو TOLIDO 1012</v>
       </c>
       <c r="C6" s="4">
-        <v>16</v>
+        <v>804</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -14198,41 +14206,73 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="str">
+        <v>5-الصالة</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>خلاط دوش برم توليدو TOLIDO 1012</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
+        <v>3-ديوان</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>خلاط دوش فيتاس اسود افجيلار AVGILAR</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
+        <v>3-ديوان</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>خلاط دوش فيتاس غروهي صيني Z</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <v>4-البسطة</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>كرسي بدعسة ابيض هندي</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="1" t="str">
+        <v>خلاط دوش فيتاس مرخم</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="1" t="str">
+        <v>5-الصالة</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>خلاط دوش فيتاس نحاس صيني</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
